--- a/Main_Data.xlsx
+++ b/Main_Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhafizhussin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhafizhussin/ShinyProjectUM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="135">
   <si>
     <t>UNIVERSITY</t>
   </si>
@@ -165,9 +165,6 @@
     <t>PROFESSORS_2015</t>
   </si>
   <si>
-    <t>ASSOC_PROF_2015</t>
-  </si>
-  <si>
     <t>LECTURERS_2015</t>
   </si>
   <si>
@@ -430,6 +427,15 @@
   </si>
   <si>
     <t xml:space="preserve">Q) WPPUTRAJAYA </t>
+  </si>
+  <si>
+    <t>ASSOC_PROFS_2015</t>
+  </si>
+  <si>
+    <t>ASSOC_PROFS_2017</t>
+  </si>
+  <si>
+    <t>ASSOC_PROFS_2016</t>
   </si>
 </sst>
 </file>
@@ -826,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,8 +846,13 @@
     <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24.5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
@@ -864,7 +875,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>29</v>
@@ -873,10 +884,10 @@
         <v>30</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>31</v>
@@ -918,10 +929,10 @@
         <v>43</v>
       </c>
       <c r="W1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="Y1" s="18" t="s">
         <v>1</v>
@@ -933,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC1" s="18" t="s">
         <v>4</v>
@@ -942,10 +953,10 @@
         <v>5</v>
       </c>
       <c r="AE1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="AG1" s="18" t="s">
         <v>8</v>
@@ -987,22 +998,22 @@
         <v>20</v>
       </c>
       <c r="AT1" s="18" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="AU1" s="18" t="s">
         <v>22</v>
       </c>
       <c r="AV1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="19" t="s">
+      <c r="AX1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="AY1" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AZ1" s="19" t="s">
         <v>23</v>
@@ -1011,60 +1022,60 @@
         <v>24</v>
       </c>
       <c r="BB1" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BC1" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BE1" s="19" t="s">
+      <c r="BF1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="BF1" s="19" t="s">
+      <c r="BG1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="BG1" s="19" t="s">
+      <c r="BH1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="BH1" s="19" t="s">
+      <c r="BI1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="BI1" s="19" t="s">
+      <c r="BJ1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="BJ1" s="19" t="s">
+      <c r="BK1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="19" t="s">
+      <c r="BL1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="BL1" s="19" t="s">
+      <c r="BM1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="BM1" s="19" t="s">
+      <c r="BN1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" s="19" t="s">
+      <c r="BO1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="BO1" s="19" t="s">
+      <c r="BP1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="BP1" s="19" t="s">
-        <v>62</v>
-      </c>
       <c r="BQ1" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR1" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="BR1" s="19" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="17">
         <v>2530</v>
@@ -1276,7 +1287,7 @@
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="17">
         <v>2484</v>
@@ -1488,7 +1499,7 @@
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="17">
         <v>1761</v>
@@ -1700,7 +1711,7 @@
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="17">
         <v>2562</v>
@@ -1912,7 +1923,7 @@
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="17">
         <v>3535</v>
@@ -2145,35 +2156,35 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="12">
         <v>13674</v>
@@ -2185,7 +2196,7 @@
         <v>12929</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2201,7 +2212,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="12">
         <v>13837</v>
@@ -2213,7 +2224,7 @@
         <v>13282</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="12">
         <v>16346</v>
@@ -2229,7 +2240,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="12">
         <v>11423</v>
@@ -2241,7 +2252,7 @@
         <v>11060</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="12">
         <v>9514</v>
@@ -2257,7 +2268,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="12">
         <v>12634</v>
@@ -2269,7 +2280,7 @@
         <v>11263</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="12">
         <v>40500</v>
@@ -2285,7 +2296,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="12">
         <v>10746</v>
@@ -2297,7 +2308,7 @@
         <v>12688</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="12">
         <v>17898</v>
@@ -2313,7 +2324,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="12">
         <v>9740</v>
@@ -2325,7 +2336,7 @@
         <v>9495</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="12">
         <v>25044</v>
@@ -2341,7 +2352,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="12">
         <v>7403</v>
@@ -2353,7 +2364,7 @@
         <v>7380</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="12">
         <v>3061</v>
@@ -2369,7 +2380,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="12">
         <v>7270</v>
@@ -2381,7 +2392,7 @@
         <v>6933</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="12">
         <v>5919</v>
@@ -2397,7 +2408,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12">
         <v>7259</v>
@@ -2409,7 +2420,7 @@
         <v>6520</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="12">
         <v>4172</v>
@@ -2425,7 +2436,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="12">
         <v>6531</v>
@@ -2439,7 +2450,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="12">
         <v>6111</v>
@@ -2453,7 +2464,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="12">
         <v>4285</v>
@@ -2467,7 +2478,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="12">
         <v>3988</v>
@@ -2481,7 +2492,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="12">
         <v>1343</v>
@@ -2495,7 +2506,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16">
         <v>202</v>
@@ -2509,7 +2520,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <v>27</v>
@@ -2523,7 +2534,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18">
         <v>458</v>
@@ -2544,7 +2555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2555,18 +2566,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>2013</v>
@@ -2577,7 +2588,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>2014</v>
@@ -2588,7 +2599,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>2015</v>
@@ -2599,7 +2610,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -2610,7 +2621,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -2621,7 +2632,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>2013</v>
@@ -2632,7 +2643,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8">
         <v>2014</v>
@@ -2643,7 +2654,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>2015</v>
@@ -2654,7 +2665,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -2665,7 +2676,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -2676,7 +2687,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12">
         <v>2013</v>
@@ -2687,7 +2698,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <v>2014</v>
@@ -2698,7 +2709,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14">
         <v>2015</v>
@@ -2709,7 +2720,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15">
         <v>2016</v>
@@ -2720,7 +2731,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -2731,7 +2742,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17">
         <v>2013</v>
@@ -2742,7 +2753,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18">
         <v>2014</v>
@@ -2753,7 +2764,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19">
         <v>2015</v>
@@ -2764,7 +2775,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20">
         <v>2016</v>
@@ -2775,7 +2786,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -2786,7 +2797,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22">
         <v>2013</v>
@@ -2797,7 +2808,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23">
         <v>2014</v>
@@ -2808,7 +2819,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24">
         <v>2015</v>
@@ -2819,7 +2830,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25">
         <v>2016</v>
@@ -2830,7 +2841,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -2841,7 +2852,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27">
         <v>2013</v>
@@ -2852,7 +2863,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28">
         <v>2014</v>
@@ -2863,7 +2874,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29">
         <v>2015</v>
@@ -2874,7 +2885,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30">
         <v>2016</v>
@@ -2885,7 +2896,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31">
         <v>2017</v>
@@ -2896,7 +2907,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32">
         <v>2013</v>
@@ -2907,7 +2918,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33">
         <v>2014</v>
@@ -2918,7 +2929,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34">
         <v>2015</v>
@@ -2929,7 +2940,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35">
         <v>2016</v>
@@ -2940,7 +2951,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36">
         <v>2017</v>
@@ -2951,7 +2962,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37">
         <v>2013</v>
@@ -2962,7 +2973,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38">
         <v>2014</v>
@@ -2973,7 +2984,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39">
         <v>2015</v>
@@ -2984,7 +2995,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40">
         <v>2016</v>
@@ -2995,7 +3006,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <v>2017</v>
@@ -3006,7 +3017,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42">
         <v>2013</v>
@@ -3017,7 +3028,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43">
         <v>2014</v>
@@ -3028,7 +3039,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44">
         <v>2015</v>
@@ -3039,7 +3050,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45">
         <v>2016</v>
@@ -3050,7 +3061,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46">
         <v>2017</v>
@@ -3061,7 +3072,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47">
         <v>2013</v>
@@ -3072,7 +3083,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48">
         <v>2014</v>
@@ -3083,7 +3094,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49">
         <v>2015</v>
@@ -3094,7 +3105,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50">
         <v>2016</v>
@@ -3105,7 +3116,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51">
         <v>2017</v>
@@ -3116,7 +3127,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52">
         <v>2013</v>
@@ -3127,7 +3138,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53">
         <v>2014</v>
@@ -3138,7 +3149,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54">
         <v>2015</v>
@@ -3149,7 +3160,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55">
         <v>2016</v>
@@ -3160,7 +3171,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56">
         <v>2017</v>
@@ -3171,7 +3182,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B57">
         <v>2013</v>
@@ -3182,7 +3193,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58">
         <v>2014</v>
@@ -3193,7 +3204,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59">
         <v>2015</v>
@@ -3204,7 +3215,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60">
         <v>2016</v>
@@ -3215,7 +3226,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61">
         <v>2017</v>
@@ -3226,7 +3237,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62">
         <v>2013</v>
@@ -3237,7 +3248,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B63">
         <v>2014</v>
@@ -3248,7 +3259,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B64">
         <v>2015</v>
@@ -3259,7 +3270,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B65">
         <v>2016</v>
@@ -3270,7 +3281,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66">
         <v>2017</v>
@@ -3281,7 +3292,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67">
         <v>2013</v>
@@ -3292,7 +3303,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68">
         <v>2014</v>
@@ -3303,7 +3314,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69">
         <v>2015</v>
@@ -3314,7 +3325,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70">
         <v>2016</v>
@@ -3325,7 +3336,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71">
         <v>2017</v>
@@ -3336,7 +3347,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72">
         <v>2013</v>
@@ -3347,7 +3358,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73">
         <v>2014</v>
@@ -3358,7 +3369,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74">
         <v>2015</v>
@@ -3369,7 +3380,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75">
         <v>2016</v>
@@ -3380,7 +3391,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76">
         <v>2017</v>
@@ -3391,7 +3402,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77">
         <v>2014</v>
@@ -3402,7 +3413,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78">
         <v>2015</v>
@@ -3413,7 +3424,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B79">
         <v>2016</v>
@@ -3424,7 +3435,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B80">
         <v>2017</v>
@@ -3435,7 +3446,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81">
         <v>2013</v>
@@ -3446,7 +3457,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82">
         <v>2013</v>
@@ -3457,7 +3468,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83">
         <v>2014</v>
@@ -3468,7 +3479,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B84">
         <v>2015</v>
@@ -3479,7 +3490,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85">
         <v>2016</v>
@@ -3490,7 +3501,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B86">
         <v>2017</v>
@@ -3600,7 +3611,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2">
         <v>1961</v>
@@ -3674,7 +3685,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2">
         <v>2599</v>
@@ -3748,7 +3759,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2">
         <v>1923</v>
@@ -3822,7 +3833,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2">
         <v>2497</v>
@@ -3896,7 +3907,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2">
         <v>3426</v>
@@ -3994,13 +4005,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
@@ -4012,60 +4023,60 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>60</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>61</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>62</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>63</v>
-      </c>
-      <c r="X1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="12">
         <v>1959</v>
@@ -4139,7 +4150,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="12">
         <v>2624</v>
@@ -4213,7 +4224,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="12">
         <v>2306</v>
@@ -4287,7 +4298,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="12">
         <v>2219</v>
@@ -4361,7 +4372,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="12">
         <v>2630</v>

--- a/Main_Data.xlsx
+++ b/Main_Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhafizhussin/ShinyProjectUM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhafizhussin/Desktop/ShinyProjectUM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="133">
   <si>
     <t>UNIVERSITY</t>
   </si>
@@ -261,9 +261,6 @@
     <t>EDU</t>
   </si>
   <si>
-    <t>WPKL</t>
-  </si>
-  <si>
     <t>ART_HUMANITIES</t>
   </si>
   <si>
@@ -318,12 +315,6 @@
     <t xml:space="preserve">PERLIS </t>
   </si>
   <si>
-    <t>WPLABUAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WPPUTRAJAYA </t>
-  </si>
-  <si>
     <t xml:space="preserve">OVERSEA </t>
   </si>
   <si>
@@ -436,6 +427,9 @@
   </si>
   <si>
     <t>ASSOC_PROFS_2016</t>
+  </si>
+  <si>
+    <t>WPERSEKUTUAN</t>
   </si>
 </sst>
 </file>
@@ -832,7 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
@@ -875,7 +869,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>29</v>
@@ -884,10 +878,10 @@
         <v>30</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>31</v>
@@ -929,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="X1" s="16" t="s">
         <v>44</v>
@@ -944,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AC1" s="18" t="s">
         <v>4</v>
@@ -953,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="AE1" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF1" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AG1" s="18" t="s">
         <v>8</v>
@@ -998,7 +992,7 @@
         <v>20</v>
       </c>
       <c r="AT1" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AU1" s="18" t="s">
         <v>22</v>
@@ -1013,7 +1007,7 @@
         <v>47</v>
       </c>
       <c r="AY1" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AZ1" s="19" t="s">
         <v>23</v>
@@ -1022,10 +1016,10 @@
         <v>24</v>
       </c>
       <c r="BB1" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="BC1" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="BD1" s="19" t="s">
         <v>49</v>
@@ -1067,7 +1061,7 @@
         <v>61</v>
       </c>
       <c r="BQ1" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BR1" s="19" t="s">
         <v>63</v>
@@ -2140,15 +2134,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
@@ -2159,25 +2153,25 @@
         <v>69</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>71</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -2240,19 +2234,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="12">
+        <f>11423+202+27</f>
+        <v>11652</v>
+      </c>
+      <c r="C4" s="8">
+        <f>13465+232+38</f>
+        <v>13735</v>
+      </c>
+      <c r="D4" s="12">
+        <f>11060+240+105</f>
+        <v>11405</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="12">
-        <v>11423</v>
-      </c>
-      <c r="C4" s="8">
-        <v>13465</v>
-      </c>
-      <c r="D4" s="12">
-        <v>11060</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="F4" s="12">
         <v>9514</v>
@@ -2268,7 +2265,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="12">
         <v>12634</v>
@@ -2280,7 +2277,7 @@
         <v>11263</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="12">
         <v>40500</v>
@@ -2296,7 +2293,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="12">
         <v>10746</v>
@@ -2308,7 +2305,7 @@
         <v>12688</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="12">
         <v>17898</v>
@@ -2324,19 +2321,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7">
+        <v>458</v>
+      </c>
+      <c r="C7" s="8">
+        <v>495</v>
+      </c>
+      <c r="D7">
+        <v>347</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="B7" s="12">
-        <v>9740</v>
-      </c>
-      <c r="C7" s="8">
-        <v>10715</v>
-      </c>
-      <c r="D7" s="12">
-        <v>9495</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="F7" s="12">
         <v>25044</v>
@@ -2352,19 +2349,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="12">
+        <v>9740</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10715</v>
+      </c>
+      <c r="D8" s="12">
+        <v>9495</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="B8" s="12">
-        <v>7403</v>
-      </c>
-      <c r="C8" s="8">
-        <v>8662</v>
-      </c>
-      <c r="D8" s="12">
-        <v>7380</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="F8" s="12">
         <v>3061</v>
@@ -2380,19 +2377,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="12">
+        <v>7403</v>
+      </c>
+      <c r="C9" s="8">
+        <v>8662</v>
+      </c>
+      <c r="D9" s="12">
+        <v>7380</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="B9" s="12">
-        <v>7270</v>
-      </c>
-      <c r="C9" s="8">
-        <v>8195</v>
-      </c>
-      <c r="D9" s="12">
-        <v>6933</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="F9" s="12">
         <v>5919</v>
@@ -2408,19 +2405,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="12">
+        <v>7270</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8195</v>
+      </c>
+      <c r="D10" s="12">
+        <v>6933</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="B10" s="12">
-        <v>7259</v>
-      </c>
-      <c r="C10" s="8">
-        <v>8036</v>
-      </c>
-      <c r="D10" s="12">
-        <v>6520</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="F10" s="12">
         <v>4172</v>
@@ -2436,114 +2433,86 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="12">
-        <v>6531</v>
+        <v>7259</v>
       </c>
       <c r="C11" s="8">
-        <v>7851</v>
+        <v>8036</v>
       </c>
       <c r="D11" s="12">
-        <v>6872</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="12">
-        <v>6111</v>
+        <v>6531</v>
       </c>
       <c r="C12" s="8">
-        <v>6740</v>
+        <v>7851</v>
       </c>
       <c r="D12" s="12">
-        <v>5789</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="12">
-        <v>4285</v>
+        <v>6111</v>
       </c>
       <c r="C13" s="8">
-        <v>4865</v>
+        <v>6740</v>
       </c>
       <c r="D13" s="12">
-        <v>4287</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="12">
-        <v>3988</v>
+        <v>4285</v>
       </c>
       <c r="C14" s="8">
-        <v>4399</v>
+        <v>4865</v>
       </c>
       <c r="D14" s="12">
-        <v>3717</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" s="12">
-        <v>1343</v>
+        <v>3988</v>
       </c>
       <c r="C15" s="8">
-        <v>1631</v>
+        <v>4399</v>
       </c>
       <c r="D15" s="12">
-        <v>1429</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16">
-        <v>202</v>
+        <v>93</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1343</v>
       </c>
       <c r="C16" s="8">
-        <v>232</v>
-      </c>
-      <c r="D16">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17">
-        <v>27</v>
-      </c>
-      <c r="C17" s="8">
-        <v>38</v>
-      </c>
-      <c r="D17">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18">
-        <v>458</v>
-      </c>
-      <c r="C18" s="8">
-        <v>495</v>
-      </c>
-      <c r="D18">
-        <v>347</v>
+        <v>1631</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1429</v>
       </c>
     </row>
   </sheetData>
@@ -2566,18 +2535,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>2013</v>
@@ -2588,7 +2557,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>2014</v>
@@ -2599,7 +2568,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>2015</v>
@@ -2610,7 +2579,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -2621,7 +2590,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -2632,7 +2601,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>2013</v>
@@ -2643,7 +2612,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>2014</v>
@@ -2654,7 +2623,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>2015</v>
@@ -2665,7 +2634,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -2676,7 +2645,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -2687,7 +2656,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12">
         <v>2013</v>
@@ -2698,7 +2667,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B13">
         <v>2014</v>
@@ -2709,7 +2678,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B14">
         <v>2015</v>
@@ -2720,7 +2689,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B15">
         <v>2016</v>
@@ -2731,7 +2700,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -2742,7 +2711,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>2013</v>
@@ -2753,7 +2722,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>2014</v>
@@ -2764,7 +2733,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <v>2015</v>
@@ -2775,7 +2744,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B20">
         <v>2016</v>
@@ -2786,7 +2755,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -2797,7 +2766,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B22">
         <v>2013</v>
@@ -2808,7 +2777,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B23">
         <v>2014</v>
@@ -2819,7 +2788,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B24">
         <v>2015</v>
@@ -2830,7 +2799,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B25">
         <v>2016</v>
@@ -2841,7 +2810,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -2852,7 +2821,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B27">
         <v>2013</v>
@@ -2863,7 +2832,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B28">
         <v>2014</v>
@@ -2874,7 +2843,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B29">
         <v>2015</v>
@@ -2885,7 +2854,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B30">
         <v>2016</v>
@@ -2896,7 +2865,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B31">
         <v>2017</v>
@@ -2907,7 +2876,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B32">
         <v>2013</v>
@@ -2918,7 +2887,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B33">
         <v>2014</v>
@@ -2929,7 +2898,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B34">
         <v>2015</v>
@@ -2940,7 +2909,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B35">
         <v>2016</v>
@@ -2951,7 +2920,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B36">
         <v>2017</v>
@@ -2962,7 +2931,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B37">
         <v>2013</v>
@@ -2973,7 +2942,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B38">
         <v>2014</v>
@@ -2984,7 +2953,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B39">
         <v>2015</v>
@@ -2995,7 +2964,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B40">
         <v>2016</v>
@@ -3006,7 +2975,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B41">
         <v>2017</v>
@@ -3017,7 +2986,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B42">
         <v>2013</v>
@@ -3028,7 +2997,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B43">
         <v>2014</v>
@@ -3039,7 +3008,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B44">
         <v>2015</v>
@@ -3050,7 +3019,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B45">
         <v>2016</v>
@@ -3061,7 +3030,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B46">
         <v>2017</v>
@@ -3072,7 +3041,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B47">
         <v>2013</v>
@@ -3083,7 +3052,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B48">
         <v>2014</v>
@@ -3094,7 +3063,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B49">
         <v>2015</v>
@@ -3105,7 +3074,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B50">
         <v>2016</v>
@@ -3116,7 +3085,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B51">
         <v>2017</v>
@@ -3127,7 +3096,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B52">
         <v>2013</v>
@@ -3138,7 +3107,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B53">
         <v>2014</v>
@@ -3149,7 +3118,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B54">
         <v>2015</v>
@@ -3160,7 +3129,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B55">
         <v>2016</v>
@@ -3171,7 +3140,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B56">
         <v>2017</v>
@@ -3182,7 +3151,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B57">
         <v>2013</v>
@@ -3193,7 +3162,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B58">
         <v>2014</v>
@@ -3204,7 +3173,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B59">
         <v>2015</v>
@@ -3215,7 +3184,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B60">
         <v>2016</v>
@@ -3226,7 +3195,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B61">
         <v>2017</v>
@@ -3237,7 +3206,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B62">
         <v>2013</v>
@@ -3248,7 +3217,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B63">
         <v>2014</v>
@@ -3259,7 +3228,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B64">
         <v>2015</v>
@@ -3270,7 +3239,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B65">
         <v>2016</v>
@@ -3281,7 +3250,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B66">
         <v>2017</v>
@@ -3292,7 +3261,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B67">
         <v>2013</v>
@@ -3303,7 +3272,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B68">
         <v>2014</v>
@@ -3314,7 +3283,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B69">
         <v>2015</v>
@@ -3325,7 +3294,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B70">
         <v>2016</v>
@@ -3336,7 +3305,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B71">
         <v>2017</v>
@@ -3347,7 +3316,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B72">
         <v>2013</v>
@@ -3358,7 +3327,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B73">
         <v>2014</v>
@@ -3369,7 +3338,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B74">
         <v>2015</v>
@@ -3380,7 +3349,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B75">
         <v>2016</v>
@@ -3391,7 +3360,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B76">
         <v>2017</v>
@@ -3402,7 +3371,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B77">
         <v>2014</v>
@@ -3413,7 +3382,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B78">
         <v>2015</v>
@@ -3424,7 +3393,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B79">
         <v>2016</v>
@@ -3435,7 +3404,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B80">
         <v>2017</v>
@@ -3446,7 +3415,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B81">
         <v>2013</v>
@@ -3457,7 +3426,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B82">
         <v>2013</v>
@@ -3468,7 +3437,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B83">
         <v>2014</v>
@@ -3479,7 +3448,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B84">
         <v>2015</v>
@@ -3490,7 +3459,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B85">
         <v>2016</v>
@@ -3501,7 +3470,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B86">
         <v>2017</v>

--- a/Main_Data.xlsx
+++ b/Main_Data.xlsx
@@ -9,16 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="3" r:id="rId1"/>
     <sheet name="Overall" sheetId="4" r:id="rId2"/>
-    <sheet name="state" sheetId="5" r:id="rId3"/>
-    <sheet name="2016" sheetId="1" r:id="rId4"/>
-    <sheet name="2017" sheetId="2" r:id="rId5"/>
+    <sheet name="UPM" sheetId="10" r:id="rId3"/>
+    <sheet name="UTM" sheetId="9" r:id="rId4"/>
+    <sheet name="UKM" sheetId="8" r:id="rId5"/>
+    <sheet name="USM" sheetId="7" r:id="rId6"/>
+    <sheet name="UM" sheetId="6" r:id="rId7"/>
+    <sheet name="2016" sheetId="1" r:id="rId8"/>
+    <sheet name="2017" sheetId="2" r:id="rId9"/>
+    <sheet name="state" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="163">
   <si>
     <t>UNIVERSITY</t>
   </si>
@@ -126,27 +131,6 @@
     <t>DIPLOMA_2015</t>
   </si>
   <si>
-    <t>HEARING_DIS_2015</t>
-  </si>
-  <si>
-    <t>SPEECH_DIS_2015</t>
-  </si>
-  <si>
-    <t>LEGS_DIS_2015</t>
-  </si>
-  <si>
-    <t>ARMS_DIS_2015</t>
-  </si>
-  <si>
-    <t>PARALYTICS_DIS_2015</t>
-  </si>
-  <si>
-    <t>VISUAL_DIS_2015</t>
-  </si>
-  <si>
-    <t>OTHERS_DIS_2015</t>
-  </si>
-  <si>
     <t>MALE_STAFF_2015</t>
   </si>
   <si>
@@ -430,6 +414,117 @@
   </si>
   <si>
     <t>WPERSEKUTUAN</t>
+  </si>
+  <si>
+    <t>HEARING_15</t>
+  </si>
+  <si>
+    <t>SPEECH_15</t>
+  </si>
+  <si>
+    <t>PHYSICAL_15</t>
+  </si>
+  <si>
+    <t>VISUAL_15</t>
+  </si>
+  <si>
+    <t>OTHERS_15</t>
+  </si>
+  <si>
+    <t>HEARING_16</t>
+  </si>
+  <si>
+    <t>SPEECH_16</t>
+  </si>
+  <si>
+    <t>PHYSICAL_16</t>
+  </si>
+  <si>
+    <t>VISUAL_16</t>
+  </si>
+  <si>
+    <t>OTHERS_16</t>
+  </si>
+  <si>
+    <t>HEARING_17</t>
+  </si>
+  <si>
+    <t>SPEECH_17</t>
+  </si>
+  <si>
+    <t>PHYSICAL_17</t>
+  </si>
+  <si>
+    <t>VISUAL_17</t>
+  </si>
+  <si>
+    <t>OTHERS_17</t>
+  </si>
+  <si>
+    <t>MALE_STUDENT</t>
+  </si>
+  <si>
+    <t>FEMALE_STUDENT</t>
+  </si>
+  <si>
+    <t>PHD_STUDENT</t>
+  </si>
+  <si>
+    <t>MASTER_STUDENT</t>
+  </si>
+  <si>
+    <t>BACHELOR_STUDENT</t>
+  </si>
+  <si>
+    <t>DIPLOMA_STUDENT</t>
+  </si>
+  <si>
+    <t>MALAYSIAN_STUDENT</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_STUDENT</t>
+  </si>
+  <si>
+    <t>HEARING_DISABILITY</t>
+  </si>
+  <si>
+    <t>SPEECH_DISABILITY</t>
+  </si>
+  <si>
+    <t>PHYSICAL_DISABILTY</t>
+  </si>
+  <si>
+    <t>VISUAL_DISABILITY</t>
+  </si>
+  <si>
+    <t>OTHERS_DISABILITY</t>
+  </si>
+  <si>
+    <t>MALE_STAFF</t>
+  </si>
+  <si>
+    <t>FEMALE_STAFF</t>
+  </si>
+  <si>
+    <t>PHD_HOLDER</t>
+  </si>
+  <si>
+    <t>MASTERS_HOLDER</t>
+  </si>
+  <si>
+    <t>BACHELOR_HOLDER</t>
+  </si>
+  <si>
+    <t>PROFESSORS</t>
+  </si>
+  <si>
+    <t>ASSOC_PROFS</t>
+  </si>
+  <si>
+    <t>LECTURERS</t>
+  </si>
+  <si>
+    <t>VARIABLES</t>
   </si>
 </sst>
 </file>
@@ -491,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -514,11 +609,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -547,6 +657,7 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR6"/>
+  <dimension ref="A1:BL6"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1"/>
+    <sheetView topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6:BL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,22 +951,38 @@
     <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +996,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>29</v>
@@ -878,198 +1005,180 @@
         <v>30</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT1" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="AY1" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AZ1" s="19" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="BA1" s="19" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="BB1" s="19" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="BC1" s="19" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="BD1" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="BE1" s="19" t="s">
+      <c r="BF1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BF1" s="19" t="s">
+      <c r="BG1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="BG1" s="19" t="s">
+      <c r="BH1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="BH1" s="19" t="s">
+      <c r="BI1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="BI1" s="19" t="s">
+      <c r="BJ1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="BJ1" s="19" t="s">
-        <v>55</v>
-      </c>
       <c r="BK1" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="BL1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="BM1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="BN1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="BP1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="BQ1" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="BR1" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="B2" s="17">
         <v>2530</v>
@@ -1099,189 +1208,172 @@
         <v>8</v>
       </c>
       <c r="K2" s="16">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="L2" s="16">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M2" s="16">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N2" s="16">
-        <v>3</v>
-      </c>
-      <c r="O2" s="16">
-        <v>24</v>
-      </c>
-      <c r="P2" s="16">
         <v>10</v>
       </c>
+      <c r="O2" s="17">
+        <v>1076</v>
+      </c>
+      <c r="P2" s="17">
+        <v>1101</v>
+      </c>
       <c r="Q2" s="17">
-        <v>1076</v>
-      </c>
-      <c r="R2" s="17">
-        <v>1101</v>
-      </c>
-      <c r="S2" s="17">
         <v>1472</v>
       </c>
+      <c r="R2" s="16">
+        <v>515</v>
+      </c>
+      <c r="S2" s="16">
+        <v>119</v>
+      </c>
       <c r="T2" s="16">
-        <v>515</v>
+        <v>304</v>
       </c>
       <c r="U2" s="16">
-        <v>119</v>
-      </c>
-      <c r="V2" s="16">
-        <v>304</v>
-      </c>
-      <c r="W2" s="16">
         <v>388</v>
       </c>
-      <c r="X2" s="17">
+      <c r="V2" s="17">
         <v>1255</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="W2" s="14">
         <v>1961</v>
       </c>
+      <c r="X2" s="14">
+        <v>3141</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>538</v>
+      </c>
       <c r="Z2" s="14">
-        <v>3141</v>
-      </c>
-      <c r="AA2" s="15">
-        <v>538</v>
-      </c>
-      <c r="AB2" s="14">
         <v>1735</v>
       </c>
+      <c r="AA2" s="14">
+        <v>2829</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
       <c r="AC2" s="14">
-        <v>2829</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="14">
         <v>22861</v>
       </c>
-      <c r="AF2" s="14">
+      <c r="AD2" s="14">
         <v>3315</v>
       </c>
+      <c r="AE2" s="15">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="15">
+        <v>1</v>
+      </c>
       <c r="AG2" s="15">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="AH2" s="15">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="15">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>1083</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>1154</v>
+      </c>
+      <c r="AL2" s="14">
+        <v>1524</v>
+      </c>
+      <c r="AM2">
+        <v>525</v>
+      </c>
+      <c r="AN2">
+        <v>110</v>
+      </c>
+      <c r="AO2" s="15">
+        <v>297</v>
+      </c>
+      <c r="AP2">
+        <v>622</v>
+      </c>
+      <c r="AQ2" s="12">
+        <v>1089</v>
+      </c>
+      <c r="AR2" s="12">
+        <v>1959</v>
+      </c>
+      <c r="AS2" s="12">
+        <v>3286</v>
+      </c>
+      <c r="AT2">
+        <v>652</v>
+      </c>
+      <c r="AU2" s="12">
+        <v>1798</v>
+      </c>
+      <c r="AV2" s="12">
+        <v>2433</v>
+      </c>
+      <c r="AW2">
+        <v>232</v>
+      </c>
+      <c r="AX2" s="12">
+        <v>24784</v>
+      </c>
+      <c r="AY2" s="12">
+        <v>3176</v>
+      </c>
+      <c r="AZ2">
+        <v>7</v>
+      </c>
+      <c r="BA2">
         <v>1</v>
       </c>
-      <c r="AI2" s="15">
-        <v>14</v>
-      </c>
-      <c r="AJ2" s="15">
-        <v>11</v>
-      </c>
-      <c r="AK2" s="15">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="15">
-        <v>19</v>
-      </c>
-      <c r="AM2" s="15">
-        <v>7</v>
-      </c>
-      <c r="AN2" s="12">
-        <v>1083</v>
-      </c>
-      <c r="AO2" s="12">
-        <v>1154</v>
-      </c>
-      <c r="AP2" s="14">
-        <v>1524</v>
-      </c>
-      <c r="AQ2">
-        <v>525</v>
-      </c>
-      <c r="AR2">
-        <v>110</v>
-      </c>
-      <c r="AS2" s="15">
-        <v>297</v>
-      </c>
-      <c r="AT2">
-        <v>622</v>
-      </c>
-      <c r="AU2" s="12">
-        <v>1089</v>
-      </c>
-      <c r="AV2" s="12">
-        <v>1959</v>
-      </c>
-      <c r="AW2" s="12">
-        <v>3286</v>
-      </c>
-      <c r="AX2">
-        <v>652</v>
-      </c>
-      <c r="AY2" s="12">
-        <v>1798</v>
-      </c>
-      <c r="AZ2" s="12">
-        <v>2433</v>
-      </c>
-      <c r="BA2">
-        <v>232</v>
-      </c>
-      <c r="BB2" s="12">
-        <v>24784</v>
-      </c>
-      <c r="BC2" s="12">
-        <v>3176</v>
+      <c r="BB2">
+        <v>27</v>
+      </c>
+      <c r="BC2">
+        <v>23</v>
       </c>
       <c r="BD2">
         <v>7</v>
       </c>
-      <c r="BE2">
-        <v>1</v>
-      </c>
-      <c r="BF2">
-        <v>14</v>
-      </c>
-      <c r="BG2">
-        <v>11</v>
+      <c r="BE2" s="12">
+        <v>1043</v>
+      </c>
+      <c r="BF2" s="12">
+        <v>1168</v>
+      </c>
+      <c r="BG2" s="12">
+        <v>1535</v>
       </c>
       <c r="BH2">
-        <v>2</v>
+        <v>498</v>
       </c>
       <c r="BI2">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="BJ2">
-        <v>7</v>
-      </c>
-      <c r="BK2" s="12">
-        <v>1043</v>
+        <v>301</v>
+      </c>
+      <c r="BK2">
+        <v>624</v>
       </c>
       <c r="BL2" s="12">
-        <v>1168</v>
-      </c>
-      <c r="BM2" s="12">
-        <v>1535</v>
-      </c>
-      <c r="BN2">
-        <v>498</v>
-      </c>
-      <c r="BO2">
-        <v>99</v>
-      </c>
-      <c r="BP2">
-        <v>301</v>
-      </c>
-      <c r="BQ2">
-        <v>624</v>
-      </c>
-      <c r="BR2" s="12">
         <v>1098</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" s="17">
         <v>2484</v>
@@ -1314,186 +1406,168 @@
         <v>0</v>
       </c>
       <c r="L3" s="16">
+        <v>25</v>
+      </c>
+      <c r="M3" s="16">
+        <v>2</v>
+      </c>
+      <c r="N3" s="16">
+        <v>17</v>
+      </c>
+      <c r="O3" s="16">
+        <v>993</v>
+      </c>
+      <c r="P3" s="16">
+        <v>970</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>1284</v>
+      </c>
+      <c r="R3" s="16">
+        <v>555</v>
+      </c>
+      <c r="S3" s="16">
+        <v>112</v>
+      </c>
+      <c r="T3" s="16">
+        <v>268</v>
+      </c>
+      <c r="U3" s="16">
+        <v>352</v>
+      </c>
+      <c r="V3" s="17">
+        <v>1221</v>
+      </c>
+      <c r="W3" s="14">
+        <v>2599</v>
+      </c>
+      <c r="X3" s="14">
+        <v>4494</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>540</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>1498</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>4968</v>
+      </c>
+      <c r="AB3">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>28080</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>1438</v>
+      </c>
+      <c r="AE3" s="15">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="15">
+        <v>22</v>
+      </c>
+      <c r="AH3" s="15">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="15">
+        <v>16</v>
+      </c>
+      <c r="AJ3">
+        <v>944</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>1017</v>
+      </c>
+      <c r="AL3" s="14">
+        <v>1296</v>
+      </c>
+      <c r="AM3">
+        <v>516</v>
+      </c>
+      <c r="AN3">
+        <v>140</v>
+      </c>
+      <c r="AO3" s="15">
+        <v>252</v>
+      </c>
+      <c r="AP3">
+        <v>374</v>
+      </c>
+      <c r="AQ3" s="12">
+        <v>1227</v>
+      </c>
+      <c r="AR3" s="12">
+        <v>2624</v>
+      </c>
+      <c r="AS3" s="12">
+        <v>4264</v>
+      </c>
+      <c r="AT3">
+        <v>563</v>
+      </c>
+      <c r="AU3" s="12">
+        <v>1508</v>
+      </c>
+      <c r="AV3" s="12">
+        <v>4769</v>
+      </c>
+      <c r="AW3">
+        <v>48</v>
+      </c>
+      <c r="AX3" s="12">
+        <v>27726</v>
+      </c>
+      <c r="AY3" s="12">
+        <v>1447</v>
+      </c>
+      <c r="AZ3">
+        <v>7</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>30</v>
+      </c>
+      <c r="BC3">
+        <v>5</v>
+      </c>
+      <c r="BD3">
         <v>14</v>
       </c>
-      <c r="M3" s="16">
-        <v>8</v>
-      </c>
-      <c r="N3" s="16">
-        <v>3</v>
-      </c>
-      <c r="O3" s="16">
-        <v>2</v>
-      </c>
-      <c r="P3" s="16">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>993</v>
-      </c>
-      <c r="R3" s="16">
-        <v>970</v>
-      </c>
-      <c r="S3" s="17">
-        <v>1284</v>
-      </c>
-      <c r="T3" s="16">
-        <v>555</v>
-      </c>
-      <c r="U3" s="16">
-        <v>112</v>
-      </c>
-      <c r="V3" s="16">
-        <v>268</v>
-      </c>
-      <c r="W3" s="16">
-        <v>352</v>
-      </c>
-      <c r="X3" s="17">
-        <v>1221</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>2599</v>
-      </c>
-      <c r="Z3" s="14">
-        <v>4494</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>540</v>
-      </c>
-      <c r="AB3" s="14">
-        <v>1498</v>
-      </c>
-      <c r="AC3" s="14">
-        <v>4968</v>
-      </c>
-      <c r="AD3">
-        <v>87</v>
-      </c>
-      <c r="AE3" s="14">
-        <v>28080</v>
-      </c>
-      <c r="AF3" s="14">
-        <v>1438</v>
-      </c>
-      <c r="AG3" s="15">
-        <v>6</v>
-      </c>
-      <c r="AH3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="15">
-        <v>14</v>
-      </c>
-      <c r="AJ3" s="15">
-        <v>7</v>
-      </c>
-      <c r="AK3" s="15">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM3" s="15">
-        <v>16</v>
-      </c>
-      <c r="AN3">
+      <c r="BE3">
         <v>944</v>
       </c>
-      <c r="AO3" s="12">
-        <v>1017</v>
-      </c>
-      <c r="AP3" s="14">
-        <v>1296</v>
-      </c>
-      <c r="AQ3">
-        <v>516</v>
-      </c>
-      <c r="AR3">
-        <v>140</v>
-      </c>
-      <c r="AS3" s="15">
-        <v>252</v>
-      </c>
-      <c r="AT3">
-        <v>374</v>
-      </c>
-      <c r="AU3" s="12">
-        <v>1227</v>
-      </c>
-      <c r="AV3" s="12">
-        <v>2624</v>
-      </c>
-      <c r="AW3" s="12">
-        <v>4264</v>
-      </c>
-      <c r="AX3">
-        <v>563</v>
-      </c>
-      <c r="AY3" s="12">
-        <v>1508</v>
-      </c>
-      <c r="AZ3" s="12">
-        <v>4769</v>
-      </c>
-      <c r="BA3">
-        <v>48</v>
-      </c>
-      <c r="BB3" s="12">
-        <v>27726</v>
-      </c>
-      <c r="BC3" s="12">
-        <v>1447</v>
-      </c>
-      <c r="BD3">
-        <v>7</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>18</v>
-      </c>
-      <c r="BG3">
-        <v>11</v>
+      <c r="BF3" s="12">
+        <v>1039</v>
+      </c>
+      <c r="BG3" s="12">
+        <v>1333</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>498</v>
       </c>
       <c r="BI3">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="BJ3">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="BK3">
-        <v>944</v>
+        <v>546</v>
       </c>
       <c r="BL3" s="12">
-        <v>1039</v>
-      </c>
-      <c r="BM3" s="12">
-        <v>1333</v>
-      </c>
-      <c r="BN3">
-        <v>498</v>
-      </c>
-      <c r="BO3">
-        <v>147</v>
-      </c>
-      <c r="BP3">
-        <v>242</v>
-      </c>
-      <c r="BQ3">
-        <v>546</v>
-      </c>
-      <c r="BR3" s="12">
         <v>1083</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B4" s="17">
         <v>1761</v>
@@ -1526,186 +1600,168 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M4" s="16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N4" s="16">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="O4" s="16">
+        <v>961</v>
+      </c>
+      <c r="P4" s="17">
+        <v>1198</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>1273</v>
+      </c>
+      <c r="R4" s="16">
+        <v>714</v>
+      </c>
+      <c r="S4" s="16">
+        <v>169</v>
+      </c>
+      <c r="T4" s="16">
+        <v>347</v>
+      </c>
+      <c r="U4" s="16">
+        <v>623</v>
+      </c>
+      <c r="V4" s="17">
+        <v>1033</v>
+      </c>
+      <c r="W4" s="14">
+        <v>1923</v>
+      </c>
+      <c r="X4" s="14">
+        <v>3666</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>401</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>1769</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>2971</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>29132</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>2332</v>
+      </c>
+      <c r="AE4" s="15">
         <v>1</v>
       </c>
-      <c r="P4" s="16">
-        <v>155</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>961</v>
-      </c>
-      <c r="R4" s="17">
-        <v>1198</v>
-      </c>
-      <c r="S4" s="17">
-        <v>1273</v>
-      </c>
-      <c r="T4" s="16">
-        <v>714</v>
-      </c>
-      <c r="U4" s="16">
-        <v>169</v>
-      </c>
-      <c r="V4" s="16">
-        <v>347</v>
-      </c>
-      <c r="W4" s="16">
-        <v>623</v>
-      </c>
-      <c r="X4" s="17">
-        <v>1033</v>
-      </c>
-      <c r="Y4" s="14">
-        <v>1923</v>
-      </c>
-      <c r="Z4" s="14">
-        <v>3666</v>
-      </c>
-      <c r="AA4" s="15">
-        <v>401</v>
-      </c>
-      <c r="AB4" s="14">
-        <v>1769</v>
-      </c>
-      <c r="AC4" s="14">
-        <v>2971</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="14">
-        <v>29132</v>
-      </c>
-      <c r="AF4" s="14">
-        <v>2332</v>
+      <c r="AF4" s="15">
+        <v>0</v>
       </c>
       <c r="AG4" s="15">
+        <v>13</v>
+      </c>
+      <c r="AH4" s="15">
         <v>1</v>
       </c>
-      <c r="AH4" s="15">
-        <v>0</v>
-      </c>
       <c r="AI4" s="15">
-        <v>5</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>8</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="15">
+        <v>209</v>
+      </c>
+      <c r="AJ4">
+        <v>955</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>1208</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>1323</v>
+      </c>
+      <c r="AM4">
+        <v>680</v>
+      </c>
+      <c r="AN4">
+        <v>158</v>
+      </c>
+      <c r="AO4" s="15">
+        <v>290</v>
+      </c>
+      <c r="AP4">
+        <v>511</v>
+      </c>
+      <c r="AQ4" s="12">
+        <v>1204</v>
+      </c>
+      <c r="AR4" s="12">
+        <v>2306</v>
+      </c>
+      <c r="AS4" s="12">
+        <v>4944</v>
+      </c>
+      <c r="AT4">
+        <v>600</v>
+      </c>
+      <c r="AU4" s="12">
+        <v>2508</v>
+      </c>
+      <c r="AV4" s="12">
+        <v>4038</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="12">
+        <v>28974</v>
+      </c>
+      <c r="AY4" s="12">
+        <v>1900</v>
+      </c>
+      <c r="AZ4">
+        <v>2</v>
+      </c>
+      <c r="BA4">
         <v>1</v>
       </c>
-      <c r="AM4" s="15">
-        <v>209</v>
-      </c>
-      <c r="AN4">
-        <v>955</v>
-      </c>
-      <c r="AO4" s="12">
-        <v>1208</v>
-      </c>
-      <c r="AP4" s="14">
-        <v>1323</v>
-      </c>
-      <c r="AQ4">
-        <v>680</v>
-      </c>
-      <c r="AR4">
-        <v>158</v>
-      </c>
-      <c r="AS4" s="15">
-        <v>290</v>
-      </c>
-      <c r="AT4">
-        <v>511</v>
-      </c>
-      <c r="AU4" s="12">
-        <v>1204</v>
-      </c>
-      <c r="AV4" s="12">
-        <v>2306</v>
-      </c>
-      <c r="AW4" s="12">
-        <v>4944</v>
-      </c>
-      <c r="AX4">
-        <v>600</v>
-      </c>
-      <c r="AY4" s="12">
-        <v>2508</v>
-      </c>
-      <c r="AZ4" s="12">
-        <v>4038</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="12">
-        <v>28974</v>
-      </c>
-      <c r="BC4" s="12">
-        <v>1900</v>
+      <c r="BB4">
+        <v>14</v>
+      </c>
+      <c r="BC4">
+        <v>2</v>
       </c>
       <c r="BD4">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="BE4">
-        <v>1</v>
-      </c>
-      <c r="BF4">
-        <v>10</v>
-      </c>
-      <c r="BG4">
-        <v>4</v>
+        <v>952</v>
+      </c>
+      <c r="BF4" s="12">
+        <v>1211</v>
+      </c>
+      <c r="BG4" s="12">
+        <v>1399</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="BI4">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="BJ4">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="BK4">
-        <v>952</v>
+        <v>497</v>
       </c>
       <c r="BL4" s="12">
-        <v>1211</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>1399</v>
-      </c>
-      <c r="BN4">
-        <v>628</v>
-      </c>
-      <c r="BO4">
-        <v>135</v>
-      </c>
-      <c r="BP4">
-        <v>277</v>
-      </c>
-      <c r="BQ4">
-        <v>497</v>
-      </c>
-      <c r="BR4" s="12">
         <v>1279</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B5" s="17">
         <v>2562</v>
@@ -1738,186 +1794,168 @@
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M5" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O5" s="16">
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="P5" s="16">
+        <v>905</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>1446</v>
+      </c>
+      <c r="R5" s="16">
+        <v>302</v>
+      </c>
+      <c r="S5" s="16">
+        <v>60</v>
+      </c>
+      <c r="T5" s="16">
+        <v>196</v>
+      </c>
+      <c r="U5" s="16">
+        <v>403</v>
+      </c>
+      <c r="V5" s="17">
+        <v>1056</v>
+      </c>
+      <c r="W5" s="14">
+        <v>2497</v>
+      </c>
+      <c r="X5" s="14">
+        <v>4674</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>532</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>1769</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>4407</v>
+      </c>
+      <c r="AB5">
+        <v>463</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>26514</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>3319</v>
+      </c>
+      <c r="AE5" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>17</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="15">
+        <v>8</v>
+      </c>
+      <c r="AJ5">
+        <v>870</v>
+      </c>
+      <c r="AK5">
+        <v>900</v>
+      </c>
+      <c r="AL5" s="14">
+        <v>1427</v>
+      </c>
+      <c r="AM5">
+        <v>292</v>
+      </c>
+      <c r="AN5">
+        <v>51</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>178</v>
+      </c>
+      <c r="AP5">
+        <v>416</v>
+      </c>
+      <c r="AQ5" s="12">
+        <v>1051</v>
+      </c>
+      <c r="AR5" s="12">
+        <v>2219</v>
+      </c>
+      <c r="AS5" s="12">
+        <v>4260</v>
+      </c>
+      <c r="AT5">
+        <v>638</v>
+      </c>
+      <c r="AU5" s="12">
+        <v>1605</v>
+      </c>
+      <c r="AV5" s="12">
+        <v>3714</v>
+      </c>
+      <c r="AW5">
+        <v>522</v>
+      </c>
+      <c r="AX5" s="12">
+        <v>24943</v>
+      </c>
+      <c r="AY5" s="12">
+        <v>4082</v>
+      </c>
+      <c r="AZ5">
+        <v>3</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>18</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
         <v>7</v>
       </c>
-      <c r="Q5" s="16">
-        <v>907</v>
-      </c>
-      <c r="R5" s="16">
-        <v>905</v>
-      </c>
-      <c r="S5" s="17">
-        <v>1446</v>
-      </c>
-      <c r="T5" s="16">
-        <v>302</v>
-      </c>
-      <c r="U5" s="16">
-        <v>60</v>
-      </c>
-      <c r="V5" s="16">
-        <v>196</v>
-      </c>
-      <c r="W5" s="16">
-        <v>403</v>
-      </c>
-      <c r="X5" s="17">
-        <v>1056</v>
-      </c>
-      <c r="Y5" s="14">
-        <v>2497</v>
-      </c>
-      <c r="Z5" s="14">
-        <v>4674</v>
-      </c>
-      <c r="AA5" s="15">
-        <v>532</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>1769</v>
-      </c>
-      <c r="AC5" s="14">
-        <v>4407</v>
-      </c>
-      <c r="AD5">
-        <v>463</v>
-      </c>
-      <c r="AE5" s="14">
-        <v>26514</v>
-      </c>
-      <c r="AF5" s="14">
-        <v>3319</v>
-      </c>
-      <c r="AG5" s="15">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="15">
-        <v>12</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>5</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="15">
-        <v>8</v>
-      </c>
-      <c r="AN5">
-        <v>870</v>
-      </c>
-      <c r="AO5">
-        <v>900</v>
-      </c>
-      <c r="AP5" s="14">
-        <v>1427</v>
-      </c>
-      <c r="AQ5">
+      <c r="BE5">
+        <v>855</v>
+      </c>
+      <c r="BF5" s="12">
+        <v>1018</v>
+      </c>
+      <c r="BG5" s="12">
+        <v>1482</v>
+      </c>
+      <c r="BH5">
         <v>292</v>
       </c>
-      <c r="AR5">
-        <v>51</v>
-      </c>
-      <c r="AS5" s="15">
-        <v>178</v>
-      </c>
-      <c r="AT5">
-        <v>416</v>
-      </c>
-      <c r="AU5" s="12">
-        <v>1051</v>
-      </c>
-      <c r="AV5" s="12">
-        <v>2219</v>
-      </c>
-      <c r="AW5" s="12">
-        <v>4260</v>
-      </c>
-      <c r="AX5">
-        <v>638</v>
-      </c>
-      <c r="AY5" s="12">
-        <v>1605</v>
-      </c>
-      <c r="AZ5" s="12">
-        <v>3714</v>
-      </c>
-      <c r="BA5">
-        <v>522</v>
-      </c>
-      <c r="BB5" s="12">
-        <v>24943</v>
-      </c>
-      <c r="BC5" s="12">
-        <v>4082</v>
-      </c>
-      <c r="BD5">
-        <v>3</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>14</v>
-      </c>
-      <c r="BG5">
-        <v>4</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
       <c r="BI5">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="BJ5">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="BK5">
-        <v>855</v>
+        <v>410</v>
       </c>
       <c r="BL5" s="12">
-        <v>1018</v>
-      </c>
-      <c r="BM5" s="12">
-        <v>1482</v>
-      </c>
-      <c r="BN5">
-        <v>292</v>
-      </c>
-      <c r="BO5">
-        <v>96</v>
-      </c>
-      <c r="BP5">
-        <v>152</v>
-      </c>
-      <c r="BQ5">
-        <v>410</v>
-      </c>
-      <c r="BR5" s="12">
         <v>1092</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B6" s="17">
         <v>3535</v>
@@ -1956,62 +1994,62 @@
         <v>0</v>
       </c>
       <c r="N6" s="16">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O6" s="16">
-        <v>0</v>
+        <v>1181</v>
       </c>
       <c r="P6" s="16">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>1181</v>
+        <v>784</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>1390</v>
       </c>
       <c r="R6" s="16">
-        <v>784</v>
-      </c>
-      <c r="S6" s="17">
-        <v>1390</v>
+        <v>533</v>
+      </c>
+      <c r="S6" s="16">
+        <v>40</v>
       </c>
       <c r="T6" s="16">
-        <v>533</v>
+        <v>211</v>
       </c>
       <c r="U6" s="16">
-        <v>40</v>
-      </c>
-      <c r="V6" s="16">
-        <v>211</v>
-      </c>
-      <c r="W6" s="16">
         <v>367</v>
       </c>
-      <c r="X6" s="17">
+      <c r="V6" s="17">
         <v>1199</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="W6" s="14">
         <v>3426</v>
       </c>
+      <c r="X6" s="14">
+        <v>3260</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>702</v>
+      </c>
       <c r="Z6" s="14">
-        <v>3260</v>
-      </c>
-      <c r="AA6" s="15">
-        <v>702</v>
-      </c>
-      <c r="AB6" s="14">
         <v>1815</v>
       </c>
+      <c r="AA6" s="14">
+        <v>3308</v>
+      </c>
+      <c r="AB6">
+        <v>861</v>
+      </c>
       <c r="AC6" s="14">
-        <v>3308</v>
-      </c>
-      <c r="AD6">
-        <v>861</v>
-      </c>
-      <c r="AE6" s="14">
         <v>27440</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AD6" s="14">
         <v>2527</v>
       </c>
+      <c r="AE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>0</v>
+      </c>
       <c r="AG6" s="15">
         <v>0</v>
       </c>
@@ -2019,111 +2057,93 @@
         <v>0</v>
       </c>
       <c r="AI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="15">
         <v>52</v>
       </c>
-      <c r="AN6" s="12">
+      <c r="AJ6" s="12">
         <v>1068</v>
       </c>
-      <c r="AO6">
+      <c r="AK6">
         <v>765</v>
       </c>
-      <c r="AP6" s="14">
+      <c r="AL6" s="14">
         <v>1369</v>
       </c>
-      <c r="AQ6">
+      <c r="AM6">
         <v>437</v>
       </c>
-      <c r="AR6">
+      <c r="AN6">
         <v>25</v>
       </c>
-      <c r="AS6" s="15">
+      <c r="AO6" s="15">
         <v>200</v>
       </c>
+      <c r="AP6">
+        <v>339</v>
+      </c>
+      <c r="AQ6" s="12">
+        <v>1167</v>
+      </c>
+      <c r="AR6" s="12">
+        <v>2630</v>
+      </c>
+      <c r="AS6" s="12">
+        <v>2753</v>
+      </c>
       <c r="AT6">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="AU6" s="12">
-        <v>1167</v>
+        <v>1706</v>
       </c>
       <c r="AV6" s="12">
-        <v>2630</v>
-      </c>
-      <c r="AW6" s="12">
-        <v>2753</v>
-      </c>
-      <c r="AX6">
-        <v>297</v>
+        <v>2868</v>
+      </c>
+      <c r="AW6">
+        <v>512</v>
+      </c>
+      <c r="AX6" s="12">
+        <v>27055</v>
       </c>
       <c r="AY6" s="12">
-        <v>1706</v>
-      </c>
-      <c r="AZ6" s="12">
-        <v>2868</v>
+        <v>2648</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>512</v>
-      </c>
-      <c r="BB6" s="12">
-        <v>27055</v>
-      </c>
-      <c r="BC6" s="12">
-        <v>2648</v>
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="BE6" s="12">
+        <v>1069</v>
       </c>
       <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
+        <v>780</v>
+      </c>
+      <c r="BG6" s="12">
+        <v>1413</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BJ6">
-        <v>41</v>
-      </c>
-      <c r="BK6" s="12">
-        <v>1069</v>
-      </c>
-      <c r="BL6">
-        <v>780</v>
-      </c>
-      <c r="BM6" s="12">
-        <v>1413</v>
-      </c>
-      <c r="BN6">
-        <v>377</v>
-      </c>
-      <c r="BO6">
-        <v>24</v>
-      </c>
-      <c r="BP6">
         <v>198</v>
       </c>
-      <c r="BQ6">
+      <c r="BK6">
         <v>329</v>
       </c>
-      <c r="BR6" s="12">
+      <c r="BL6" s="12">
         <v>1205</v>
       </c>
     </row>
@@ -2132,395 +2152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="12">
-        <v>13674</v>
-      </c>
-      <c r="C2" s="8">
-        <v>15468</v>
-      </c>
-      <c r="D2" s="12">
-        <v>12929</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>880</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="12">
-        <v>13837</v>
-      </c>
-      <c r="C3" s="8">
-        <v>15484</v>
-      </c>
-      <c r="D3" s="12">
-        <v>13282</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="12">
-        <v>16346</v>
-      </c>
-      <c r="G3" s="10">
-        <v>13142</v>
-      </c>
-      <c r="H3" s="12">
-        <v>8685</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="12">
-        <f>11423+202+27</f>
-        <v>11652</v>
-      </c>
-      <c r="C4" s="8">
-        <f>13465+232+38</f>
-        <v>13735</v>
-      </c>
-      <c r="D4" s="12">
-        <f>11060+240+105</f>
-        <v>11405</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="12">
-        <v>9514</v>
-      </c>
-      <c r="G4" s="10">
-        <v>10978</v>
-      </c>
-      <c r="H4" s="12">
-        <v>10233</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="12">
-        <v>12634</v>
-      </c>
-      <c r="C5" s="8">
-        <v>13782</v>
-      </c>
-      <c r="D5" s="12">
-        <v>11263</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="12">
-        <v>40500</v>
-      </c>
-      <c r="G5" s="11">
-        <v>51064</v>
-      </c>
-      <c r="H5" s="12">
-        <v>40711</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="12">
-        <v>10746</v>
-      </c>
-      <c r="C6" s="8">
-        <v>13345</v>
-      </c>
-      <c r="D6" s="12">
-        <v>12688</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="12">
-        <v>17898</v>
-      </c>
-      <c r="G6" s="10">
-        <v>17896</v>
-      </c>
-      <c r="H6" s="12">
-        <v>20130</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7">
-        <v>458</v>
-      </c>
-      <c r="C7" s="8">
-        <v>495</v>
-      </c>
-      <c r="D7">
-        <v>347</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="12">
-        <v>25044</v>
-      </c>
-      <c r="G7" s="11">
-        <v>29807</v>
-      </c>
-      <c r="H7" s="12">
-        <v>26706</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="12">
-        <v>9740</v>
-      </c>
-      <c r="C8" s="8">
-        <v>10715</v>
-      </c>
-      <c r="D8" s="12">
-        <v>9495</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3061</v>
-      </c>
-      <c r="G8" s="10">
-        <v>3157</v>
-      </c>
-      <c r="H8" s="12">
-        <v>2387</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="12">
-        <v>7403</v>
-      </c>
-      <c r="C9" s="8">
-        <v>8662</v>
-      </c>
-      <c r="D9" s="12">
-        <v>7380</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="12">
-        <v>5919</v>
-      </c>
-      <c r="G9" s="10">
-        <v>6479</v>
-      </c>
-      <c r="H9" s="12">
-        <v>6803</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="12">
-        <v>7270</v>
-      </c>
-      <c r="C10" s="8">
-        <v>8195</v>
-      </c>
-      <c r="D10" s="12">
-        <v>6933</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="12">
-        <v>4172</v>
-      </c>
-      <c r="G10" s="10">
-        <v>5223</v>
-      </c>
-      <c r="H10" s="12">
-        <v>3903</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="12">
-        <v>7259</v>
-      </c>
-      <c r="C11" s="8">
-        <v>8036</v>
-      </c>
-      <c r="D11" s="12">
-        <v>6520</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="12">
-        <v>6531</v>
-      </c>
-      <c r="C12" s="8">
-        <v>7851</v>
-      </c>
-      <c r="D12" s="12">
-        <v>6872</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="12">
-        <v>6111</v>
-      </c>
-      <c r="C13" s="8">
-        <v>6740</v>
-      </c>
-      <c r="D13" s="12">
-        <v>5789</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="12">
-        <v>4285</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4865</v>
-      </c>
-      <c r="D14" s="12">
-        <v>4287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="12">
-        <v>3988</v>
-      </c>
-      <c r="C15" s="8">
-        <v>4399</v>
-      </c>
-      <c r="D15" s="12">
-        <v>3717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="12">
-        <v>1343</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1631</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1429</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
@@ -2535,18 +2167,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>2013</v>
@@ -2557,7 +2189,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>2014</v>
@@ -2568,7 +2200,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>2015</v>
@@ -2579,7 +2211,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -2590,7 +2222,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -2601,7 +2233,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>2013</v>
@@ -2612,7 +2244,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>2014</v>
@@ -2623,7 +2255,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B9">
         <v>2015</v>
@@ -2634,7 +2266,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -2645,7 +2277,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -2656,7 +2288,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B12">
         <v>2013</v>
@@ -2667,7 +2299,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B13">
         <v>2014</v>
@@ -2678,7 +2310,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B14">
         <v>2015</v>
@@ -2689,7 +2321,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B15">
         <v>2016</v>
@@ -2700,7 +2332,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -2711,7 +2343,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B17">
         <v>2013</v>
@@ -2722,7 +2354,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B18">
         <v>2014</v>
@@ -2733,7 +2365,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B19">
         <v>2015</v>
@@ -2744,7 +2376,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>2016</v>
@@ -2755,7 +2387,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -2766,7 +2398,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B22">
         <v>2013</v>
@@ -2777,7 +2409,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B23">
         <v>2014</v>
@@ -2788,7 +2420,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B24">
         <v>2015</v>
@@ -2799,7 +2431,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B25">
         <v>2016</v>
@@ -2810,7 +2442,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -2821,7 +2453,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B27">
         <v>2013</v>
@@ -2832,7 +2464,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B28">
         <v>2014</v>
@@ -2843,7 +2475,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B29">
         <v>2015</v>
@@ -2854,7 +2486,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>2016</v>
@@ -2865,7 +2497,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B31">
         <v>2017</v>
@@ -2876,7 +2508,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B32">
         <v>2013</v>
@@ -2887,7 +2519,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B33">
         <v>2014</v>
@@ -2898,7 +2530,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B34">
         <v>2015</v>
@@ -2909,7 +2541,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B35">
         <v>2016</v>
@@ -2920,7 +2552,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B36">
         <v>2017</v>
@@ -2931,7 +2563,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B37">
         <v>2013</v>
@@ -2942,7 +2574,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B38">
         <v>2014</v>
@@ -2953,7 +2585,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B39">
         <v>2015</v>
@@ -2964,7 +2596,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B40">
         <v>2016</v>
@@ -2975,7 +2607,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B41">
         <v>2017</v>
@@ -2986,7 +2618,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B42">
         <v>2013</v>
@@ -2997,7 +2629,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B43">
         <v>2014</v>
@@ -3008,7 +2640,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B44">
         <v>2015</v>
@@ -3019,7 +2651,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B45">
         <v>2016</v>
@@ -3030,7 +2662,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B46">
         <v>2017</v>
@@ -3041,7 +2673,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B47">
         <v>2013</v>
@@ -3052,7 +2684,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B48">
         <v>2014</v>
@@ -3063,7 +2695,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B49">
         <v>2015</v>
@@ -3074,7 +2706,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B50">
         <v>2016</v>
@@ -3085,7 +2717,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B51">
         <v>2017</v>
@@ -3096,7 +2728,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B52">
         <v>2013</v>
@@ -3107,7 +2739,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B53">
         <v>2014</v>
@@ -3118,7 +2750,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B54">
         <v>2015</v>
@@ -3129,7 +2761,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B55">
         <v>2016</v>
@@ -3140,7 +2772,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B56">
         <v>2017</v>
@@ -3151,7 +2783,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B57">
         <v>2013</v>
@@ -3162,7 +2794,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B58">
         <v>2014</v>
@@ -3173,7 +2805,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B59">
         <v>2015</v>
@@ -3184,7 +2816,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B60">
         <v>2016</v>
@@ -3195,7 +2827,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B61">
         <v>2017</v>
@@ -3206,7 +2838,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B62">
         <v>2013</v>
@@ -3217,7 +2849,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B63">
         <v>2014</v>
@@ -3228,7 +2860,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B64">
         <v>2015</v>
@@ -3239,7 +2871,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B65">
         <v>2016</v>
@@ -3250,7 +2882,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B66">
         <v>2017</v>
@@ -3261,7 +2893,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B67">
         <v>2013</v>
@@ -3272,7 +2904,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B68">
         <v>2014</v>
@@ -3283,7 +2915,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B69">
         <v>2015</v>
@@ -3294,7 +2926,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B70">
         <v>2016</v>
@@ -3305,7 +2937,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B71">
         <v>2017</v>
@@ -3316,7 +2948,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B72">
         <v>2013</v>
@@ -3327,7 +2959,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B73">
         <v>2014</v>
@@ -3338,7 +2970,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B74">
         <v>2015</v>
@@ -3349,7 +2981,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B75">
         <v>2016</v>
@@ -3360,7 +2992,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B76">
         <v>2017</v>
@@ -3371,7 +3003,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B77">
         <v>2014</v>
@@ -3382,7 +3014,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B78">
         <v>2015</v>
@@ -3393,7 +3025,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B79">
         <v>2016</v>
@@ -3404,7 +3036,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B80">
         <v>2017</v>
@@ -3415,7 +3047,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>2013</v>
@@ -3426,7 +3058,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>2013</v>
@@ -3437,7 +3069,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B83">
         <v>2014</v>
@@ -3448,7 +3080,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>2015</v>
@@ -3459,7 +3091,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B85">
         <v>2016</v>
@@ -3470,7 +3102,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B86">
         <v>2017</v>
@@ -3487,7 +3119,2025 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="12">
+        <v>13674</v>
+      </c>
+      <c r="C2" s="8">
+        <v>15468</v>
+      </c>
+      <c r="D2" s="12">
+        <v>12929</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>880</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="12">
+        <v>13837</v>
+      </c>
+      <c r="C3" s="8">
+        <v>15484</v>
+      </c>
+      <c r="D3" s="12">
+        <v>13282</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="12">
+        <v>16346</v>
+      </c>
+      <c r="G3" s="10">
+        <v>13142</v>
+      </c>
+      <c r="H3" s="12">
+        <v>8685</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12">
+        <f>11423+202+27</f>
+        <v>11652</v>
+      </c>
+      <c r="C4" s="8">
+        <f>13465+232+38</f>
+        <v>13735</v>
+      </c>
+      <c r="D4" s="12">
+        <f>11060+240+105</f>
+        <v>11405</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="12">
+        <v>9514</v>
+      </c>
+      <c r="G4" s="10">
+        <v>10978</v>
+      </c>
+      <c r="H4" s="12">
+        <v>10233</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="12">
+        <v>12634</v>
+      </c>
+      <c r="C5" s="8">
+        <v>13782</v>
+      </c>
+      <c r="D5" s="12">
+        <v>11263</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="12">
+        <v>40500</v>
+      </c>
+      <c r="G5" s="11">
+        <v>51064</v>
+      </c>
+      <c r="H5" s="12">
+        <v>40711</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="12">
+        <v>10746</v>
+      </c>
+      <c r="C6" s="8">
+        <v>13345</v>
+      </c>
+      <c r="D6" s="12">
+        <v>12688</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="12">
+        <v>17898</v>
+      </c>
+      <c r="G6" s="10">
+        <v>17896</v>
+      </c>
+      <c r="H6" s="12">
+        <v>20130</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>458</v>
+      </c>
+      <c r="C7" s="8">
+        <v>495</v>
+      </c>
+      <c r="D7">
+        <v>347</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="12">
+        <v>25044</v>
+      </c>
+      <c r="G7" s="11">
+        <v>29807</v>
+      </c>
+      <c r="H7" s="12">
+        <v>26706</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="12">
+        <v>9740</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10715</v>
+      </c>
+      <c r="D8" s="12">
+        <v>9495</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3061</v>
+      </c>
+      <c r="G8" s="10">
+        <v>3157</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2387</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="12">
+        <v>7403</v>
+      </c>
+      <c r="C9" s="8">
+        <v>8662</v>
+      </c>
+      <c r="D9" s="12">
+        <v>7380</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5919</v>
+      </c>
+      <c r="G9" s="10">
+        <v>6479</v>
+      </c>
+      <c r="H9" s="12">
+        <v>6803</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="12">
+        <v>7270</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8195</v>
+      </c>
+      <c r="D10" s="12">
+        <v>6933</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4172</v>
+      </c>
+      <c r="G10" s="10">
+        <v>5223</v>
+      </c>
+      <c r="H10" s="12">
+        <v>3903</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="12">
+        <v>7259</v>
+      </c>
+      <c r="C11" s="8">
+        <v>8036</v>
+      </c>
+      <c r="D11" s="12">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="12">
+        <v>6531</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7851</v>
+      </c>
+      <c r="D12" s="12">
+        <v>6872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="12">
+        <v>6111</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6740</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="12">
+        <v>4285</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4865</v>
+      </c>
+      <c r="D14" s="12">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="12">
+        <v>3988</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4399</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1343</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1631</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="20">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="20">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2562</v>
+      </c>
+      <c r="C2" s="20">
+        <v>2497</v>
+      </c>
+      <c r="D2">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="20">
+        <v>4520</v>
+      </c>
+      <c r="C3" s="20">
+        <v>4674</v>
+      </c>
+      <c r="D3">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="20">
+        <v>479</v>
+      </c>
+      <c r="C4" s="20">
+        <v>532</v>
+      </c>
+      <c r="D4">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1853</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1769</v>
+      </c>
+      <c r="D5">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="20">
+        <v>4320</v>
+      </c>
+      <c r="C6" s="20">
+        <v>4407</v>
+      </c>
+      <c r="D6">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="20">
+        <v>430</v>
+      </c>
+      <c r="C7" s="20">
+        <v>463</v>
+      </c>
+      <c r="D7">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="20">
+        <v>27199</v>
+      </c>
+      <c r="C8" s="20">
+        <v>26514</v>
+      </c>
+      <c r="D8">
+        <v>24943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="20">
+        <v>3471</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3319</v>
+      </c>
+      <c r="D9">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="20">
+        <v>3</v>
+      </c>
+      <c r="C10" s="20">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="20">
+        <v>17</v>
+      </c>
+      <c r="C12" s="20">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="20">
+        <v>7</v>
+      </c>
+      <c r="C14" s="20">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="20">
+        <v>907</v>
+      </c>
+      <c r="C15" s="20">
+        <v>870</v>
+      </c>
+      <c r="D15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="20">
+        <v>905</v>
+      </c>
+      <c r="C16" s="20">
+        <v>900</v>
+      </c>
+      <c r="D16">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1446</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1427</v>
+      </c>
+      <c r="D17">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="20">
+        <v>302</v>
+      </c>
+      <c r="C18" s="20">
+        <v>292</v>
+      </c>
+      <c r="D18">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="20">
+        <v>60</v>
+      </c>
+      <c r="C19" s="20">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="20">
+        <v>196</v>
+      </c>
+      <c r="C20" s="20">
+        <v>178</v>
+      </c>
+      <c r="D20">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="20">
+        <v>403</v>
+      </c>
+      <c r="C21" s="20">
+        <v>416</v>
+      </c>
+      <c r="D21">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1056</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1051</v>
+      </c>
+      <c r="D22">
+        <v>1092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="20">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="20">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="20">
+        <v>3535</v>
+      </c>
+      <c r="C2" s="20">
+        <v>3426</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="20">
+        <v>3462</v>
+      </c>
+      <c r="C3" s="20">
+        <v>3260</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="20">
+        <v>612</v>
+      </c>
+      <c r="C4" s="20">
+        <v>702</v>
+      </c>
+      <c r="D4" s="20">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1797</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1815</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="20">
+        <v>3743</v>
+      </c>
+      <c r="C6" s="20">
+        <v>3308</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="20">
+        <v>840</v>
+      </c>
+      <c r="C7" s="20">
+        <v>861</v>
+      </c>
+      <c r="D7" s="20">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="20">
+        <v>28200</v>
+      </c>
+      <c r="C8" s="20">
+        <v>27440</v>
+      </c>
+      <c r="D8" s="20">
+        <v>27055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="20">
+        <v>2866</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2527</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="20">
+        <v>65</v>
+      </c>
+      <c r="C14" s="20">
+        <v>52</v>
+      </c>
+      <c r="D14" s="20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1181</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1068</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="20">
+        <v>784</v>
+      </c>
+      <c r="C16" s="20">
+        <v>765</v>
+      </c>
+      <c r="D16" s="20">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1390</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1369</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="20">
+        <v>533</v>
+      </c>
+      <c r="C18" s="20">
+        <v>437</v>
+      </c>
+      <c r="D18" s="20">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="20">
+        <v>40</v>
+      </c>
+      <c r="C19" s="20">
+        <v>25</v>
+      </c>
+      <c r="D19" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="20">
+        <v>211</v>
+      </c>
+      <c r="C20" s="20">
+        <v>200</v>
+      </c>
+      <c r="D20" s="20">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="20">
+        <v>367</v>
+      </c>
+      <c r="C21" s="20">
+        <v>339</v>
+      </c>
+      <c r="D21" s="20">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1199</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1167</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="20">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="20">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1761</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1923</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="20">
+        <v>3004</v>
+      </c>
+      <c r="C3" s="20">
+        <v>3666</v>
+      </c>
+      <c r="D3" s="20">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="20">
+        <v>469</v>
+      </c>
+      <c r="C4" s="20">
+        <v>401</v>
+      </c>
+      <c r="D4" s="20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="20">
+        <v>2079</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1769</v>
+      </c>
+      <c r="D5" s="20">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="20">
+        <v>2041</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2971</v>
+      </c>
+      <c r="D6" s="20">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="20">
+        <v>25309</v>
+      </c>
+      <c r="C8" s="20">
+        <v>29132</v>
+      </c>
+      <c r="D8" s="20">
+        <v>28974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1930</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2332</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="20">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20">
+        <v>13</v>
+      </c>
+      <c r="D12" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="20">
+        <v>155</v>
+      </c>
+      <c r="C14" s="20">
+        <v>209</v>
+      </c>
+      <c r="D14" s="20">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="20">
+        <v>961</v>
+      </c>
+      <c r="C15" s="20">
+        <v>955</v>
+      </c>
+      <c r="D15" s="20">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1198</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1208</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1273</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1323</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="20">
+        <v>714</v>
+      </c>
+      <c r="C18" s="20">
+        <v>680</v>
+      </c>
+      <c r="D18" s="20">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="20">
+        <v>169</v>
+      </c>
+      <c r="C19" s="20">
+        <v>158</v>
+      </c>
+      <c r="D19" s="20">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="20">
+        <v>347</v>
+      </c>
+      <c r="C20" s="20">
+        <v>290</v>
+      </c>
+      <c r="D20" s="20">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="20">
+        <v>623</v>
+      </c>
+      <c r="C21" s="20">
+        <v>511</v>
+      </c>
+      <c r="D21" s="20">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1033</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1204</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="20">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="20">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2484</v>
+      </c>
+      <c r="C2" s="20">
+        <v>2599</v>
+      </c>
+      <c r="D2">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="20">
+        <v>4259</v>
+      </c>
+      <c r="C3" s="20">
+        <v>4494</v>
+      </c>
+      <c r="D3">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="20">
+        <v>568</v>
+      </c>
+      <c r="C4" s="20">
+        <v>540</v>
+      </c>
+      <c r="D4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1626</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1498</v>
+      </c>
+      <c r="D5">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="20">
+        <v>4475</v>
+      </c>
+      <c r="C6" s="20">
+        <v>4968</v>
+      </c>
+      <c r="D6">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="20">
+        <v>74</v>
+      </c>
+      <c r="C7" s="20">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="20">
+        <v>29264</v>
+      </c>
+      <c r="C8" s="20">
+        <v>28080</v>
+      </c>
+      <c r="D8">
+        <v>27726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1589</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1438</v>
+      </c>
+      <c r="D9">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="20">
+        <v>10</v>
+      </c>
+      <c r="C10" s="20">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="20">
+        <v>25</v>
+      </c>
+      <c r="C12" s="20">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="20">
+        <v>17</v>
+      </c>
+      <c r="C14" s="20">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="20">
+        <v>993</v>
+      </c>
+      <c r="C15" s="20">
+        <v>944</v>
+      </c>
+      <c r="D15">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="20">
+        <v>970</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1017</v>
+      </c>
+      <c r="D16">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1284</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1296</v>
+      </c>
+      <c r="D17">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="20">
+        <v>555</v>
+      </c>
+      <c r="C18" s="20">
+        <v>516</v>
+      </c>
+      <c r="D18">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="20">
+        <v>112</v>
+      </c>
+      <c r="C19" s="20">
+        <v>140</v>
+      </c>
+      <c r="D19">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="20">
+        <v>268</v>
+      </c>
+      <c r="C20" s="20">
+        <v>252</v>
+      </c>
+      <c r="D20">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="20">
+        <v>352</v>
+      </c>
+      <c r="C21" s="20">
+        <v>374</v>
+      </c>
+      <c r="D21">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1221</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1227</v>
+      </c>
+      <c r="D22">
+        <v>1083</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="20">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="20">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2530</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1961</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="20">
+        <v>3798</v>
+      </c>
+      <c r="C3" s="20">
+        <v>3141</v>
+      </c>
+      <c r="D3" s="20">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="20">
+        <v>432</v>
+      </c>
+      <c r="C4" s="20">
+        <v>538</v>
+      </c>
+      <c r="D4" s="20">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1627</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1735</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="20">
+        <v>3059</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2829</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="20">
+        <v>23489</v>
+      </c>
+      <c r="C8" s="20">
+        <v>22861</v>
+      </c>
+      <c r="D8" s="20">
+        <v>24784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="20">
+        <v>3963</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3315</v>
+      </c>
+      <c r="D9" s="20">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="20">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="20">
+        <v>26</v>
+      </c>
+      <c r="C12" s="20">
+        <v>26</v>
+      </c>
+      <c r="D12" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="20">
+        <v>24</v>
+      </c>
+      <c r="C13" s="20">
+        <v>19</v>
+      </c>
+      <c r="D13" s="20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="20">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <v>7</v>
+      </c>
+      <c r="D14" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1076</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1083</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1101</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1154</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1472</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1524</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="20">
+        <v>515</v>
+      </c>
+      <c r="C18" s="20">
+        <v>525</v>
+      </c>
+      <c r="D18" s="20">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="20">
+        <v>119</v>
+      </c>
+      <c r="C19" s="20">
+        <v>110</v>
+      </c>
+      <c r="D19" s="20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="20">
+        <v>304</v>
+      </c>
+      <c r="C20" s="20">
+        <v>297</v>
+      </c>
+      <c r="D20" s="20">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="20">
+        <v>388</v>
+      </c>
+      <c r="C21" s="20">
+        <v>622</v>
+      </c>
+      <c r="D21" s="20">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1255</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1089</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X6"/>
   <sheetViews>
@@ -3580,7 +5230,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2">
         <v>1961</v>
@@ -3654,7 +5304,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2">
         <v>2599</v>
@@ -3728,7 +5378,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2">
         <v>1923</v>
@@ -3802,7 +5452,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2">
         <v>2497</v>
@@ -3876,7 +5526,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2">
         <v>3426</v>
@@ -3953,7 +5603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X6"/>
   <sheetViews>
@@ -3974,13 +5624,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
@@ -3992,60 +5642,60 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B2" s="12">
         <v>1959</v>
@@ -4119,7 +5769,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" s="12">
         <v>2624</v>
@@ -4193,7 +5843,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B4" s="12">
         <v>2306</v>
@@ -4267,7 +5917,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B5" s="12">
         <v>2219</v>
@@ -4341,7 +5991,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B6" s="12">
         <v>2630</v>

--- a/Main_Data.xlsx
+++ b/Main_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="3" r:id="rId1"/>
@@ -3123,7 +3123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -4815,8 +4815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Main_Data.xlsx
+++ b/Main_Data.xlsx
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL6"/>
   <sheetViews>
-    <sheetView topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6:BL6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3124,7 +3124,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3511,7 +3511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -4816,7 +4816,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Main_Data.xlsx
+++ b/Main_Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhafizhussin/Desktop/ShinyProjectUM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wqd170096\Documents\R\ShinyProject-HJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="3" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="2017" sheetId="2" r:id="rId9"/>
     <sheet name="state" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="164">
   <si>
     <t>UNIVERSITY</t>
   </si>
@@ -525,13 +525,16 @@
   </si>
   <si>
     <t>VARIABLES</t>
+  </si>
+  <si>
+    <t>STUDENTS_BY_STATES_2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -558,6 +561,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -628,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -658,6 +666,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,6 +678,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -937,52 +951,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BH27" sqref="BH27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="24.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="15" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.375" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="16" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64">
       <c r="A2" s="13" t="s">
         <v>57</v>
       </c>
@@ -1371,7 +1385,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64">
       <c r="A3" s="13" t="s">
         <v>58</v>
       </c>
@@ -1565,7 +1579,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64">
       <c r="A4" s="13" t="s">
         <v>59</v>
       </c>
@@ -1759,7 +1773,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64">
       <c r="A5" s="13" t="s">
         <v>60</v>
       </c>
@@ -1953,7 +1967,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64">
       <c r="A6" s="13" t="s">
         <v>61</v>
       </c>
@@ -2157,15 +2171,15 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>102</v>
       </c>
@@ -2176,7 +2190,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>105</v>
       </c>
@@ -2187,7 +2201,7 @@
         <v>15312</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>105</v>
       </c>
@@ -2198,7 +2212,7 @@
         <v>15628</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
         <v>105</v>
       </c>
@@ -2209,7 +2223,7 @@
         <v>13674</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
         <v>105</v>
       </c>
@@ -2220,7 +2234,7 @@
         <v>15468</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
         <v>105</v>
       </c>
@@ -2231,7 +2245,7 @@
         <v>12929</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
         <v>106</v>
       </c>
@@ -2242,7 +2256,7 @@
         <v>14126</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>106</v>
       </c>
@@ -2253,7 +2267,7 @@
         <v>14947</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
         <v>106</v>
       </c>
@@ -2264,7 +2278,7 @@
         <v>13837</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
         <v>106</v>
       </c>
@@ -2275,7 +2289,7 @@
         <v>15484</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
@@ -2286,7 +2300,7 @@
         <v>13282</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
         <v>107</v>
       </c>
@@ -2297,7 +2311,7 @@
         <v>11856</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
         <v>107</v>
       </c>
@@ -2308,7 +2322,7 @@
         <v>14456</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
         <v>107</v>
       </c>
@@ -2319,7 +2333,7 @@
         <v>11423</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
         <v>107</v>
       </c>
@@ -2330,7 +2344,7 @@
         <v>13465</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -2341,7 +2355,7 @@
         <v>11060</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="7" t="s">
         <v>108</v>
       </c>
@@ -2352,7 +2366,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
         <v>108</v>
       </c>
@@ -2363,7 +2377,7 @@
         <v>12715</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
         <v>108</v>
       </c>
@@ -2374,7 +2388,7 @@
         <v>12634</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -2385,7 +2399,7 @@
         <v>13782</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
         <v>108</v>
       </c>
@@ -2396,7 +2410,7 @@
         <v>11263</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="7" t="s">
         <v>109</v>
       </c>
@@ -2407,7 +2421,7 @@
         <v>12367</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
         <v>109</v>
       </c>
@@ -2418,7 +2432,7 @@
         <v>13028</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
         <v>109</v>
       </c>
@@ -2429,7 +2443,7 @@
         <v>10746</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
         <v>109</v>
       </c>
@@ -2440,7 +2454,7 @@
         <v>13345</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
         <v>109</v>
       </c>
@@ -2451,7 +2465,7 @@
         <v>12688</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
         <v>110</v>
       </c>
@@ -2462,7 +2476,7 @@
         <v>9297</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
         <v>110</v>
       </c>
@@ -2473,7 +2487,7 @@
         <v>9904</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
         <v>110</v>
       </c>
@@ -2484,7 +2498,7 @@
         <v>9740</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="7" t="s">
         <v>110</v>
       </c>
@@ -2495,7 +2509,7 @@
         <v>10715</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
         <v>110</v>
       </c>
@@ -2506,7 +2520,7 @@
         <v>9495</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
         <v>111</v>
       </c>
@@ -2517,7 +2531,7 @@
         <v>8609</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="7" t="s">
         <v>111</v>
       </c>
@@ -2528,7 +2542,7 @@
         <v>8817</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
         <v>111</v>
       </c>
@@ -2539,7 +2553,7 @@
         <v>7403</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="7" t="s">
         <v>111</v>
       </c>
@@ -2550,7 +2564,7 @@
         <v>8662</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="7" t="s">
         <v>111</v>
       </c>
@@ -2561,7 +2575,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
         <v>112</v>
       </c>
@@ -2572,7 +2586,7 @@
         <v>7985</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
@@ -2583,7 +2597,7 @@
         <v>8544</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="7" t="s">
         <v>112</v>
       </c>
@@ -2594,7 +2608,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
         <v>112</v>
       </c>
@@ -2605,7 +2619,7 @@
         <v>8195</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="7" t="s">
         <v>112</v>
       </c>
@@ -2616,7 +2630,7 @@
         <v>6933</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
         <v>113</v>
       </c>
@@ -2627,7 +2641,7 @@
         <v>6474</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="7" t="s">
         <v>113</v>
       </c>
@@ -2638,7 +2652,7 @@
         <v>7106</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="7" t="s">
         <v>113</v>
       </c>
@@ -2649,7 +2663,7 @@
         <v>7259</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="7" t="s">
         <v>113</v>
       </c>
@@ -2660,7 +2674,7 @@
         <v>8036</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="7" t="s">
         <v>113</v>
       </c>
@@ -2671,7 +2685,7 @@
         <v>6520</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="7" t="s">
         <v>114</v>
       </c>
@@ -2682,7 +2696,7 @@
         <v>5736</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="7" t="s">
         <v>114</v>
       </c>
@@ -2693,7 +2707,7 @@
         <v>6434</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="7" t="s">
         <v>114</v>
       </c>
@@ -2704,7 +2718,7 @@
         <v>6531</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="7" t="s">
         <v>114</v>
       </c>
@@ -2715,7 +2729,7 @@
         <v>7851</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="7" t="s">
         <v>114</v>
       </c>
@@ -2726,7 +2740,7 @@
         <v>6872</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="7" t="s">
         <v>115</v>
       </c>
@@ -2737,7 +2751,7 @@
         <v>5982</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="7" t="s">
         <v>115</v>
       </c>
@@ -2748,7 +2762,7 @@
         <v>6412</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="7" t="s">
         <v>115</v>
       </c>
@@ -2759,7 +2773,7 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="7" t="s">
         <v>115</v>
       </c>
@@ -2770,7 +2784,7 @@
         <v>6740</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="7" t="s">
         <v>115</v>
       </c>
@@ -2781,7 +2795,7 @@
         <v>5789</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="7" t="s">
         <v>116</v>
       </c>
@@ -2792,7 +2806,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="7" t="s">
         <v>116</v>
       </c>
@@ -2803,7 +2817,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="7" t="s">
         <v>116</v>
       </c>
@@ -2814,7 +2828,7 @@
         <v>4285</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="7" t="s">
         <v>116</v>
       </c>
@@ -2825,7 +2839,7 @@
         <v>4865</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="7" t="s">
         <v>116</v>
       </c>
@@ -2836,7 +2850,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="7" t="s">
         <v>117</v>
       </c>
@@ -2847,7 +2861,7 @@
         <v>4085</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="7" t="s">
         <v>117</v>
       </c>
@@ -2858,7 +2872,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="7" t="s">
         <v>117</v>
       </c>
@@ -2869,7 +2883,7 @@
         <v>3988</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="7" t="s">
         <v>117</v>
       </c>
@@ -2880,7 +2894,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="7" t="s">
         <v>117</v>
       </c>
@@ -2891,7 +2905,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="7" t="s">
         <v>118</v>
       </c>
@@ -2902,7 +2916,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="7" t="s">
         <v>118</v>
       </c>
@@ -2913,7 +2927,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="7" t="s">
         <v>118</v>
       </c>
@@ -2924,7 +2938,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="7" t="s">
         <v>118</v>
       </c>
@@ -2935,7 +2949,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="7" t="s">
         <v>118</v>
       </c>
@@ -2946,7 +2960,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="7" t="s">
         <v>119</v>
       </c>
@@ -2957,7 +2971,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="7" t="s">
         <v>119</v>
       </c>
@@ -2968,7 +2982,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="7" t="s">
         <v>119</v>
       </c>
@@ -2979,7 +2993,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="7" t="s">
         <v>119</v>
       </c>
@@ -2990,7 +3004,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="7" t="s">
         <v>119</v>
       </c>
@@ -3001,7 +3015,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="7" t="s">
         <v>120</v>
       </c>
@@ -3012,7 +3026,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="7" t="s">
         <v>120</v>
       </c>
@@ -3023,7 +3037,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="7" t="s">
         <v>120</v>
       </c>
@@ -3034,7 +3048,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="7" t="s">
         <v>120</v>
       </c>
@@ -3045,7 +3059,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="7" t="s">
         <v>120</v>
       </c>
@@ -3056,7 +3070,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="7" t="s">
         <v>121</v>
       </c>
@@ -3067,7 +3081,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="7" t="s">
         <v>121</v>
       </c>
@@ -3078,7 +3092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="7" t="s">
         <v>121</v>
       </c>
@@ -3089,7 +3103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="7" t="s">
         <v>121</v>
       </c>
@@ -3100,7 +3114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="7" t="s">
         <v>121</v>
       </c>
@@ -3121,384 +3135,433 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="21">
+        <v>15628</v>
+      </c>
+      <c r="C2" s="12">
         <v>13674</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>15468</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="12">
         <v>12929</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
         <v>880</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="21">
+        <v>14947</v>
+      </c>
+      <c r="C3" s="12">
         <v>13837</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="8">
         <v>15484</v>
       </c>
-      <c r="D3" s="12">
+      <c r="E3" s="12">
         <v>13282</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="12">
         <v>16346</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>13142</v>
       </c>
-      <c r="H3" s="12">
+      <c r="I3" s="12">
         <v>8685</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="21">
+        <v>14748</v>
+      </c>
+      <c r="C4" s="12">
         <f>11423+202+27</f>
         <v>11652</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="8">
         <f>13465+232+38</f>
         <v>13735</v>
       </c>
-      <c r="D4" s="12">
+      <c r="E4" s="12">
         <f>11060+240+105</f>
         <v>11405</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="12">
         <v>9514</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>10978</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="12">
         <v>10233</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="21">
+        <v>12715</v>
+      </c>
+      <c r="C5" s="12">
         <v>12634</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="8">
         <v>13782</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="12">
         <v>11263</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="12">
         <v>40500</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H5" s="11">
         <v>51064</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <v>40711</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="9"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="21">
+        <v>13028</v>
+      </c>
+      <c r="C6" s="12">
         <v>10746</v>
       </c>
-      <c r="C6" s="8">
+      <c r="D6" s="8">
         <v>13345</v>
       </c>
-      <c r="D6" s="12">
+      <c r="E6" s="12">
         <v>12688</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="12">
         <v>17898</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>17896</v>
       </c>
-      <c r="H6" s="12">
+      <c r="I6" s="12">
         <v>20130</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="21">
+        <v>548</v>
+      </c>
+      <c r="C7">
         <v>458</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="8">
         <v>495</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>347</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="12">
         <v>25044</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="11">
         <v>29807</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>26706</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="9"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="21">
+        <v>9904</v>
+      </c>
+      <c r="C8" s="12">
         <v>9740</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D8" s="8">
         <v>10715</v>
       </c>
-      <c r="D8" s="12">
+      <c r="E8" s="12">
         <v>9495</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="12">
         <v>3061</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>3157</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>2387</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="21">
+        <v>8817</v>
+      </c>
+      <c r="C9" s="12">
         <v>7403</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
         <v>8662</v>
       </c>
-      <c r="D9" s="12">
+      <c r="E9" s="12">
         <v>7380</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G9" s="12">
         <v>5919</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>6479</v>
       </c>
-      <c r="H9" s="12">
+      <c r="I9" s="12">
         <v>6803</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="21">
+        <v>8544</v>
+      </c>
+      <c r="C10" s="12">
         <v>7270</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <v>8195</v>
       </c>
-      <c r="D10" s="12">
+      <c r="E10" s="12">
         <v>6933</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="12">
+      <c r="G10" s="12">
         <v>4172</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>5223</v>
       </c>
-      <c r="H10" s="12">
+      <c r="I10" s="12">
         <v>3903</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="21">
+        <v>7106</v>
+      </c>
+      <c r="C11" s="12">
         <v>7259</v>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="8">
         <v>8036</v>
       </c>
-      <c r="D11" s="12">
+      <c r="E11" s="12">
         <v>6520</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="21">
+        <v>6434</v>
+      </c>
+      <c r="C12" s="12">
         <v>6531</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <v>7851</v>
       </c>
-      <c r="D12" s="12">
+      <c r="E12" s="12">
         <v>6872</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="21">
+        <v>6412</v>
+      </c>
+      <c r="C13" s="12">
         <v>6111</v>
       </c>
-      <c r="C13" s="8">
+      <c r="D13" s="8">
         <v>6740</v>
       </c>
-      <c r="D13" s="12">
+      <c r="E13" s="12">
         <v>5789</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="21">
+        <v>4762</v>
+      </c>
+      <c r="C14" s="12">
         <v>4285</v>
       </c>
-      <c r="C14" s="8">
+      <c r="D14" s="8">
         <v>4865</v>
       </c>
-      <c r="D14" s="12">
+      <c r="E14" s="12">
         <v>4287</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="21">
+        <v>4358</v>
+      </c>
+      <c r="C15" s="12">
         <v>3988</v>
       </c>
-      <c r="C15" s="8">
+      <c r="D15" s="8">
         <v>4399</v>
       </c>
-      <c r="D15" s="12">
+      <c r="E15" s="12">
         <v>3717</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="21">
+        <v>1575</v>
+      </c>
+      <c r="C16" s="12">
         <v>1343</v>
       </c>
-      <c r="C16" s="8">
+      <c r="D16" s="8">
         <v>1631</v>
       </c>
-      <c r="D16" s="12">
+      <c r="E16" s="12">
         <v>1429</v>
       </c>
     </row>
@@ -3511,16 +3574,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
         <v>162</v>
       </c>
@@ -3534,7 +3597,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="20" t="s">
         <v>141</v>
       </c>
@@ -3548,7 +3611,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
         <v>142</v>
       </c>
@@ -3562,7 +3625,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="20" t="s">
         <v>143</v>
       </c>
@@ -3576,7 +3639,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="20" t="s">
         <v>144</v>
       </c>
@@ -3590,7 +3653,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="20" t="s">
         <v>145</v>
       </c>
@@ -3604,7 +3667,7 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="20" t="s">
         <v>146</v>
       </c>
@@ -3618,7 +3681,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="20" t="s">
         <v>147</v>
       </c>
@@ -3632,7 +3695,7 @@
         <v>24943</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
         <v>148</v>
       </c>
@@ -3646,7 +3709,7 @@
         <v>4082</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
         <v>149</v>
       </c>
@@ -3660,7 +3723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="20" t="s">
         <v>150</v>
       </c>
@@ -3674,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
         <v>151</v>
       </c>
@@ -3688,7 +3751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="20" t="s">
         <v>152</v>
       </c>
@@ -3702,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="20" t="s">
         <v>153</v>
       </c>
@@ -3716,7 +3779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="20" t="s">
         <v>154</v>
       </c>
@@ -3730,7 +3793,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="20" t="s">
         <v>155</v>
       </c>
@@ -3744,7 +3807,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="20" t="s">
         <v>156</v>
       </c>
@@ -3758,7 +3821,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="20" t="s">
         <v>157</v>
       </c>
@@ -3772,7 +3835,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="20" t="s">
         <v>158</v>
       </c>
@@ -3786,7 +3849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="20" t="s">
         <v>159</v>
       </c>
@@ -3800,7 +3863,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="20" t="s">
         <v>160</v>
       </c>
@@ -3814,7 +3877,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="20" t="s">
         <v>161</v>
       </c>
@@ -3841,12 +3904,12 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
         <v>162</v>
       </c>
@@ -3860,7 +3923,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="20" t="s">
         <v>141</v>
       </c>
@@ -3874,7 +3937,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
         <v>142</v>
       </c>
@@ -3888,7 +3951,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="20" t="s">
         <v>143</v>
       </c>
@@ -3902,7 +3965,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="20" t="s">
         <v>144</v>
       </c>
@@ -3916,7 +3979,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="20" t="s">
         <v>145</v>
       </c>
@@ -3930,7 +3993,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="20" t="s">
         <v>146</v>
       </c>
@@ -3944,7 +4007,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="20" t="s">
         <v>147</v>
       </c>
@@ -3958,7 +4021,7 @@
         <v>27055</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
         <v>148</v>
       </c>
@@ -3972,7 +4035,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
         <v>149</v>
       </c>
@@ -3986,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="20" t="s">
         <v>150</v>
       </c>
@@ -4000,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
         <v>151</v>
       </c>
@@ -4014,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="20" t="s">
         <v>152</v>
       </c>
@@ -4028,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="20" t="s">
         <v>153</v>
       </c>
@@ -4042,7 +4105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="20" t="s">
         <v>154</v>
       </c>
@@ -4056,7 +4119,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="20" t="s">
         <v>155</v>
       </c>
@@ -4070,7 +4133,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="20" t="s">
         <v>156</v>
       </c>
@@ -4084,7 +4147,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="20" t="s">
         <v>157</v>
       </c>
@@ -4098,7 +4161,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="20" t="s">
         <v>158</v>
       </c>
@@ -4112,7 +4175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="20" t="s">
         <v>159</v>
       </c>
@@ -4126,7 +4189,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="20" t="s">
         <v>160</v>
       </c>
@@ -4140,7 +4203,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="20" t="s">
         <v>161</v>
       </c>
@@ -4167,12 +4230,12 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
         <v>162</v>
       </c>
@@ -4186,7 +4249,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="20" t="s">
         <v>141</v>
       </c>
@@ -4200,7 +4263,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
         <v>142</v>
       </c>
@@ -4214,7 +4277,7 @@
         <v>4944</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="20" t="s">
         <v>143</v>
       </c>
@@ -4228,7 +4291,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="20" t="s">
         <v>144</v>
       </c>
@@ -4242,7 +4305,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="20" t="s">
         <v>145</v>
       </c>
@@ -4256,7 +4319,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="20" t="s">
         <v>146</v>
       </c>
@@ -4270,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="20" t="s">
         <v>147</v>
       </c>
@@ -4284,7 +4347,7 @@
         <v>28974</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
         <v>148</v>
       </c>
@@ -4298,7 +4361,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
         <v>149</v>
       </c>
@@ -4312,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="20" t="s">
         <v>150</v>
       </c>
@@ -4326,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
         <v>151</v>
       </c>
@@ -4340,7 +4403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="20" t="s">
         <v>152</v>
       </c>
@@ -4354,7 +4417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="20" t="s">
         <v>153</v>
       </c>
@@ -4368,7 +4431,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="20" t="s">
         <v>154</v>
       </c>
@@ -4382,7 +4445,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="20" t="s">
         <v>155</v>
       </c>
@@ -4396,7 +4459,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="20" t="s">
         <v>156</v>
       </c>
@@ -4410,7 +4473,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="20" t="s">
         <v>157</v>
       </c>
@@ -4424,7 +4487,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="20" t="s">
         <v>158</v>
       </c>
@@ -4438,7 +4501,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="20" t="s">
         <v>159</v>
       </c>
@@ -4452,7 +4515,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="20" t="s">
         <v>160</v>
       </c>
@@ -4466,7 +4529,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="20" t="s">
         <v>161</v>
       </c>
@@ -4493,12 +4556,12 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
         <v>162</v>
       </c>
@@ -4512,7 +4575,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="20" t="s">
         <v>141</v>
       </c>
@@ -4526,7 +4589,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
         <v>142</v>
       </c>
@@ -4540,7 +4603,7 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="20" t="s">
         <v>143</v>
       </c>
@@ -4554,7 +4617,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="20" t="s">
         <v>144</v>
       </c>
@@ -4568,7 +4631,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="20" t="s">
         <v>145</v>
       </c>
@@ -4582,7 +4645,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="20" t="s">
         <v>146</v>
       </c>
@@ -4596,7 +4659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="20" t="s">
         <v>147</v>
       </c>
@@ -4610,7 +4673,7 @@
         <v>27726</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
         <v>148</v>
       </c>
@@ -4624,7 +4687,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
         <v>149</v>
       </c>
@@ -4638,7 +4701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="20" t="s">
         <v>150</v>
       </c>
@@ -4652,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
         <v>151</v>
       </c>
@@ -4666,7 +4729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="20" t="s">
         <v>152</v>
       </c>
@@ -4680,7 +4743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="20" t="s">
         <v>153</v>
       </c>
@@ -4694,7 +4757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="20" t="s">
         <v>154</v>
       </c>
@@ -4708,7 +4771,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="20" t="s">
         <v>155</v>
       </c>
@@ -4722,7 +4785,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="20" t="s">
         <v>156</v>
       </c>
@@ -4736,7 +4799,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="20" t="s">
         <v>157</v>
       </c>
@@ -4750,7 +4813,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="20" t="s">
         <v>158</v>
       </c>
@@ -4764,7 +4827,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="20" t="s">
         <v>159</v>
       </c>
@@ -4778,7 +4841,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="20" t="s">
         <v>160</v>
       </c>
@@ -4792,7 +4855,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="20" t="s">
         <v>161</v>
       </c>
@@ -4815,16 +4878,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
         <v>162</v>
       </c>
@@ -4838,7 +4901,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="20" t="s">
         <v>141</v>
       </c>
@@ -4852,7 +4915,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
         <v>142</v>
       </c>
@@ -4866,7 +4929,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="20" t="s">
         <v>143</v>
       </c>
@@ -4880,7 +4943,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="20" t="s">
         <v>144</v>
       </c>
@@ -4894,7 +4957,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="20" t="s">
         <v>145</v>
       </c>
@@ -4908,7 +4971,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="20" t="s">
         <v>146</v>
       </c>
@@ -4922,7 +4985,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="20" t="s">
         <v>147</v>
       </c>
@@ -4936,7 +4999,7 @@
         <v>24784</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
         <v>148</v>
       </c>
@@ -4950,7 +5013,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
         <v>149</v>
       </c>
@@ -4964,7 +5027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="20" t="s">
         <v>150</v>
       </c>
@@ -4978,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
         <v>151</v>
       </c>
@@ -4992,7 +5055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="20" t="s">
         <v>152</v>
       </c>
@@ -5006,7 +5069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="20" t="s">
         <v>153</v>
       </c>
@@ -5020,7 +5083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="20" t="s">
         <v>154</v>
       </c>
@@ -5034,7 +5097,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="20" t="s">
         <v>155</v>
       </c>
@@ -5048,7 +5111,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="20" t="s">
         <v>156</v>
       </c>
@@ -5062,7 +5125,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="20" t="s">
         <v>157</v>
       </c>
@@ -5076,7 +5139,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="20" t="s">
         <v>158</v>
       </c>
@@ -5090,7 +5153,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="20" t="s">
         <v>159</v>
       </c>
@@ -5104,7 +5167,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="20" t="s">
         <v>160</v>
       </c>
@@ -5118,7 +5181,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="20" t="s">
         <v>161</v>
       </c>
@@ -5145,16 +5208,16 @@
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5228,7 +5291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -5302,7 +5365,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -5376,7 +5439,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -5450,7 +5513,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -5524,7 +5587,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
@@ -5611,15 +5674,15 @@
       <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5693,7 +5756,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -5767,7 +5830,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -5841,7 +5904,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -5915,7 +5978,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -5989,7 +6052,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
         <v>61</v>
       </c>

--- a/Main_Data.xlsx
+++ b/Main_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="3" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t>KELANTAN</t>
   </si>
   <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">JOHOR </t>
   </si>
   <si>
@@ -528,13 +525,16 @@
   </si>
   <si>
     <t>STUDENTS_BY_STATES_2014</t>
+  </si>
+  <si>
+    <t>STUDENTS_BY_FIELDS_2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -545,21 +545,25 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -955,7 +959,7 @@
       <selection activeCell="BH27" sqref="BH27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
@@ -996,7 +1000,7 @@
     <col min="64" max="64" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>29</v>
@@ -1019,25 +1023,25 @@
         <v>30</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>95</v>
-      </c>
       <c r="J1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>31</v>
@@ -1058,7 +1062,7 @@
         <v>36</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V1" s="16" t="s">
         <v>37</v>
@@ -1073,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA1" s="18" t="s">
         <v>4</v>
@@ -1082,25 +1086,25 @@
         <v>5</v>
       </c>
       <c r="AC1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AD1" s="18" t="s">
-        <v>98</v>
-      </c>
       <c r="AE1" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="AJ1" s="18" t="s">
         <v>15</v>
@@ -1121,7 +1125,7 @@
         <v>20</v>
       </c>
       <c r="AP1" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ1" s="18" t="s">
         <v>22</v>
@@ -1136,7 +1140,7 @@
         <v>40</v>
       </c>
       <c r="AU1" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AV1" s="19" t="s">
         <v>23</v>
@@ -1145,25 +1149,25 @@
         <v>24</v>
       </c>
       <c r="AX1" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AY1" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ1" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA1" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="BA1" s="19" t="s">
+      <c r="BB1" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BC1" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BD1" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="BD1" s="19" t="s">
-        <v>140</v>
       </c>
       <c r="BE1" s="19" t="s">
         <v>49</v>
@@ -1184,13 +1188,13 @@
         <v>54</v>
       </c>
       <c r="BK1" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BL1" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:64">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>57</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>58</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="4" spans="1:64">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>59</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>60</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>61</v>
       </c>
@@ -2174,25 +2178,25 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="B2">
         <v>2013</v>
@@ -2201,9 +2205,9 @@
         <v>15312</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3">
         <v>2014</v>
@@ -2212,9 +2216,9 @@
         <v>15628</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>2015</v>
@@ -2223,9 +2227,9 @@
         <v>13674</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -2234,9 +2238,9 @@
         <v>15468</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -2245,9 +2249,9 @@
         <v>12929</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>2013</v>
@@ -2256,9 +2260,9 @@
         <v>14126</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <v>2014</v>
@@ -2267,9 +2271,9 @@
         <v>14947</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9">
         <v>2015</v>
@@ -2278,9 +2282,9 @@
         <v>13837</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -2289,9 +2293,9 @@
         <v>15484</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -2300,9 +2304,9 @@
         <v>13282</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12">
         <v>2013</v>
@@ -2311,9 +2315,9 @@
         <v>11856</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <v>2014</v>
@@ -2322,9 +2326,9 @@
         <v>14456</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <v>2015</v>
@@ -2333,9 +2337,9 @@
         <v>11423</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>2016</v>
@@ -2344,9 +2348,9 @@
         <v>13465</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -2355,9 +2359,9 @@
         <v>11060</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17">
         <v>2013</v>
@@ -2366,9 +2370,9 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>2014</v>
@@ -2377,9 +2381,9 @@
         <v>12715</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19">
         <v>2015</v>
@@ -2388,9 +2392,9 @@
         <v>12634</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20">
         <v>2016</v>
@@ -2399,9 +2403,9 @@
         <v>13782</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -2410,9 +2414,9 @@
         <v>11263</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22">
         <v>2013</v>
@@ -2421,9 +2425,9 @@
         <v>12367</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23">
         <v>2014</v>
@@ -2432,9 +2436,9 @@
         <v>13028</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24">
         <v>2015</v>
@@ -2443,9 +2447,9 @@
         <v>10746</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25">
         <v>2016</v>
@@ -2454,9 +2458,9 @@
         <v>13345</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -2465,9 +2469,9 @@
         <v>12688</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27">
         <v>2013</v>
@@ -2476,9 +2480,9 @@
         <v>9297</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28">
         <v>2014</v>
@@ -2487,9 +2491,9 @@
         <v>9904</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29">
         <v>2015</v>
@@ -2498,9 +2502,9 @@
         <v>9740</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30">
         <v>2016</v>
@@ -2509,9 +2513,9 @@
         <v>10715</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31">
         <v>2017</v>
@@ -2520,9 +2524,9 @@
         <v>9495</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32">
         <v>2013</v>
@@ -2531,9 +2535,9 @@
         <v>8609</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33">
         <v>2014</v>
@@ -2542,9 +2546,9 @@
         <v>8817</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34">
         <v>2015</v>
@@ -2553,9 +2557,9 @@
         <v>7403</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35">
         <v>2016</v>
@@ -2564,9 +2568,9 @@
         <v>8662</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36">
         <v>2017</v>
@@ -2575,9 +2579,9 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37">
         <v>2013</v>
@@ -2586,9 +2590,9 @@
         <v>7985</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38">
         <v>2014</v>
@@ -2597,9 +2601,9 @@
         <v>8544</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39">
         <v>2015</v>
@@ -2608,9 +2612,9 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40">
         <v>2016</v>
@@ -2619,9 +2623,9 @@
         <v>8195</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41">
         <v>2017</v>
@@ -2630,9 +2634,9 @@
         <v>6933</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42">
         <v>2013</v>
@@ -2641,9 +2645,9 @@
         <v>6474</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43">
         <v>2014</v>
@@ -2652,9 +2656,9 @@
         <v>7106</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44">
         <v>2015</v>
@@ -2663,9 +2667,9 @@
         <v>7259</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B45">
         <v>2016</v>
@@ -2674,9 +2678,9 @@
         <v>8036</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46">
         <v>2017</v>
@@ -2685,9 +2689,9 @@
         <v>6520</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47">
         <v>2013</v>
@@ -2696,9 +2700,9 @@
         <v>5736</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48">
         <v>2014</v>
@@ -2707,9 +2711,9 @@
         <v>6434</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49">
         <v>2015</v>
@@ -2718,9 +2722,9 @@
         <v>6531</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50">
         <v>2016</v>
@@ -2729,9 +2733,9 @@
         <v>7851</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51">
         <v>2017</v>
@@ -2740,9 +2744,9 @@
         <v>6872</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52">
         <v>2013</v>
@@ -2751,9 +2755,9 @@
         <v>5982</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <v>2014</v>
@@ -2762,9 +2766,9 @@
         <v>6412</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54">
         <v>2015</v>
@@ -2773,9 +2777,9 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B55">
         <v>2016</v>
@@ -2784,9 +2788,9 @@
         <v>6740</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56">
         <v>2017</v>
@@ -2795,9 +2799,9 @@
         <v>5789</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57">
         <v>2013</v>
@@ -2806,9 +2810,9 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58">
         <v>2014</v>
@@ -2817,9 +2821,9 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59">
         <v>2015</v>
@@ -2828,9 +2832,9 @@
         <v>4285</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60">
         <v>2016</v>
@@ -2839,9 +2843,9 @@
         <v>4865</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61">
         <v>2017</v>
@@ -2850,9 +2854,9 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62">
         <v>2013</v>
@@ -2861,9 +2865,9 @@
         <v>4085</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63">
         <v>2014</v>
@@ -2872,9 +2876,9 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64">
         <v>2015</v>
@@ -2883,9 +2887,9 @@
         <v>3988</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65">
         <v>2016</v>
@@ -2894,9 +2898,9 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66">
         <v>2017</v>
@@ -2905,9 +2909,9 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67">
         <v>2013</v>
@@ -2916,9 +2920,9 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68">
         <v>2014</v>
@@ -2927,9 +2931,9 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69">
         <v>2015</v>
@@ -2938,9 +2942,9 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70">
         <v>2016</v>
@@ -2949,9 +2953,9 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71">
         <v>2017</v>
@@ -2960,9 +2964,9 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B72">
         <v>2013</v>
@@ -2971,9 +2975,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73">
         <v>2014</v>
@@ -2982,9 +2986,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B74">
         <v>2015</v>
@@ -2993,9 +2997,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B75">
         <v>2016</v>
@@ -3004,9 +3008,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B76">
         <v>2017</v>
@@ -3015,9 +3019,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77">
         <v>2014</v>
@@ -3026,9 +3030,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78">
         <v>2015</v>
@@ -3037,9 +3041,9 @@
         <v>458</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79">
         <v>2016</v>
@@ -3048,9 +3052,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>2017</v>
@@ -3059,9 +3063,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B81">
         <v>2013</v>
@@ -3070,9 +3074,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B82">
         <v>2013</v>
@@ -3081,9 +3085,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>2014</v>
@@ -3092,9 +3096,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84">
         <v>2015</v>
@@ -3103,9 +3107,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B85">
         <v>2016</v>
@@ -3114,9 +3118,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86">
         <v>2017</v>
@@ -3135,53 +3139,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="24.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="10" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>65</v>
       </c>
@@ -3197,24 +3205,14 @@
       <c r="E2" s="12">
         <v>12929</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <v>880</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="B3" s="21">
         <v>14947</v>
@@ -3229,23 +3227,26 @@
         <v>13282</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="12">
+        <v>7524</v>
+      </c>
+      <c r="H3" s="12">
         <v>16346</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>13142</v>
       </c>
-      <c r="I3" s="12">
+      <c r="J3" s="12">
         <v>8685</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="21">
         <v>14748</v>
@@ -3263,23 +3264,26 @@
         <v>11405</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="12">
+        <v>11916</v>
+      </c>
+      <c r="H4" s="12">
+        <v>9514</v>
+      </c>
+      <c r="I4" s="10">
+        <v>10978</v>
+      </c>
+      <c r="J4" s="12">
+        <v>10233</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G4" s="12">
-        <v>9514</v>
-      </c>
-      <c r="H4" s="10">
-        <v>10978</v>
-      </c>
-      <c r="I4" s="12">
-        <v>10233</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="B5" s="21">
         <v>12715</v>
@@ -3294,23 +3298,26 @@
         <v>11263</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="12">
+        <v>50819</v>
+      </c>
+      <c r="H5" s="12">
+        <v>40500</v>
+      </c>
+      <c r="I5" s="11">
+        <v>51064</v>
+      </c>
+      <c r="J5" s="12">
+        <v>40711</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G5" s="12">
-        <v>40500</v>
-      </c>
-      <c r="H5" s="11">
-        <v>51064</v>
-      </c>
-      <c r="I5" s="12">
-        <v>40711</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="B6" s="21">
         <v>13028</v>
@@ -3325,23 +3332,26 @@
         <v>12688</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="12">
+        <v>21108</v>
+      </c>
+      <c r="H6" s="12">
         <v>17898</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>17896</v>
       </c>
-      <c r="I6" s="12">
+      <c r="J6" s="12">
         <v>20130</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="21">
         <v>548</v>
@@ -3356,23 +3366,26 @@
         <v>347</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="12">
+        <v>28557</v>
+      </c>
+      <c r="H7" s="12">
         <v>25044</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>29807</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>26706</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="9"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="21">
         <v>9904</v>
@@ -3387,23 +3400,26 @@
         <v>9495</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="12">
+        <v>3349</v>
+      </c>
+      <c r="H8" s="12">
         <v>3061</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>3157</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <v>2387</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="21">
         <v>8817</v>
@@ -3418,23 +3434,26 @@
         <v>7380</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="12">
+        <v>7015</v>
+      </c>
+      <c r="H9" s="12">
         <v>5919</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>6479</v>
       </c>
-      <c r="I9" s="12">
+      <c r="J9" s="12">
         <v>6803</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="21">
         <v>8544</v>
@@ -3449,23 +3468,26 @@
         <v>6933</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="12">
+        <v>4878</v>
+      </c>
+      <c r="H10" s="12">
         <v>4172</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <v>5223</v>
       </c>
-      <c r="I10" s="12">
+      <c r="J10" s="12">
         <v>3903</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="21">
         <v>7106</v>
@@ -3480,9 +3502,9 @@
         <v>6520</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="21">
         <v>6434</v>
@@ -3497,9 +3519,9 @@
         <v>6872</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="21">
         <v>6412</v>
@@ -3514,9 +3536,9 @@
         <v>5789</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="21">
         <v>4762</v>
@@ -3531,9 +3553,9 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="21">
         <v>4358</v>
@@ -3548,9 +3570,9 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="21">
         <v>1575</v>
@@ -3575,17 +3597,17 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="20">
         <v>2015</v>
@@ -3597,9 +3619,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="20">
         <v>2562</v>
@@ -3611,9 +3633,9 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="20">
         <v>4520</v>
@@ -3625,9 +3647,9 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="20">
         <v>479</v>
@@ -3639,9 +3661,9 @@
         <v>638</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="20">
         <v>1853</v>
@@ -3653,9 +3675,9 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="20">
         <v>4320</v>
@@ -3667,9 +3689,9 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="20">
         <v>430</v>
@@ -3681,9 +3703,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="20">
         <v>27199</v>
@@ -3695,9 +3717,9 @@
         <v>24943</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="20">
         <v>3471</v>
@@ -3709,9 +3731,9 @@
         <v>4082</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="20">
         <v>3</v>
@@ -3723,23 +3745,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" s="20">
-        <v>0</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="20" t="s">
-        <v>151</v>
       </c>
       <c r="B12" s="20">
         <v>17</v>
@@ -3751,9 +3773,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="20">
         <v>0</v>
@@ -3765,9 +3787,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="20">
         <v>7</v>
@@ -3779,9 +3801,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="20">
         <v>907</v>
@@ -3793,9 +3815,9 @@
         <v>855</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="20">
         <v>905</v>
@@ -3807,9 +3829,9 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="20">
         <v>1446</v>
@@ -3821,9 +3843,9 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="20">
         <v>302</v>
@@ -3835,9 +3857,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="20">
         <v>60</v>
@@ -3849,9 +3871,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="20">
         <v>196</v>
@@ -3863,9 +3885,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="20">
         <v>403</v>
@@ -3877,9 +3899,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="20">
         <v>1056</v>
@@ -3904,14 +3926,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="20">
         <v>2015</v>
@@ -3923,9 +3945,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="20">
         <v>3535</v>
@@ -3937,9 +3959,9 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="20">
         <v>3462</v>
@@ -3951,9 +3973,9 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="20">
         <v>612</v>
@@ -3965,9 +3987,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="20">
         <v>1797</v>
@@ -3979,9 +4001,9 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="20">
         <v>3743</v>
@@ -3993,9 +4015,9 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="20">
         <v>840</v>
@@ -4007,9 +4029,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="20">
         <v>28200</v>
@@ -4021,9 +4043,9 @@
         <v>27055</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="20">
         <v>2866</v>
@@ -4035,37 +4057,37 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="20">
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="20" t="s">
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" s="20">
-        <v>0</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="20" t="s">
-        <v>151</v>
       </c>
       <c r="B12" s="20">
         <v>1</v>
@@ -4077,23 +4099,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>152</v>
-      </c>
-      <c r="B13" s="20">
-        <v>0</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="20" t="s">
-        <v>153</v>
       </c>
       <c r="B14" s="20">
         <v>65</v>
@@ -4105,9 +4127,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="20">
         <v>1181</v>
@@ -4119,9 +4141,9 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="20">
         <v>784</v>
@@ -4133,9 +4155,9 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="20">
         <v>1390</v>
@@ -4147,9 +4169,9 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="20">
         <v>533</v>
@@ -4161,9 +4183,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="20">
         <v>40</v>
@@ -4175,9 +4197,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="20">
         <v>211</v>
@@ -4189,9 +4211,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="20">
         <v>367</v>
@@ -4203,9 +4225,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="20">
         <v>1199</v>
@@ -4230,14 +4252,14 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="20">
         <v>2015</v>
@@ -4249,9 +4271,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="20">
         <v>1761</v>
@@ -4263,9 +4285,9 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="20">
         <v>3004</v>
@@ -4277,9 +4299,9 @@
         <v>4944</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="20">
         <v>469</v>
@@ -4291,9 +4313,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="20">
         <v>2079</v>
@@ -4305,9 +4327,9 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="20">
         <v>2041</v>
@@ -4319,23 +4341,23 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="B7" s="20">
-        <v>0</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="B8" s="20">
         <v>25309</v>
@@ -4347,9 +4369,9 @@
         <v>28974</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="20">
         <v>1930</v>
@@ -4361,9 +4383,9 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="20">
         <v>0</v>
@@ -4375,9 +4397,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="20">
         <v>0</v>
@@ -4389,9 +4411,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="20">
         <v>10</v>
@@ -4403,9 +4425,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="20">
         <v>1</v>
@@ -4417,9 +4439,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="20">
         <v>155</v>
@@ -4431,9 +4453,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="20">
         <v>961</v>
@@ -4445,9 +4467,9 @@
         <v>952</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="20">
         <v>1198</v>
@@ -4459,9 +4481,9 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="20">
         <v>1273</v>
@@ -4473,9 +4495,9 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="20">
         <v>714</v>
@@ -4487,9 +4509,9 @@
         <v>628</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="20">
         <v>169</v>
@@ -4501,9 +4523,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="20">
         <v>347</v>
@@ -4515,9 +4537,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="20">
         <v>623</v>
@@ -4529,9 +4551,9 @@
         <v>497</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="20">
         <v>1033</v>
@@ -4556,14 +4578,14 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="20">
         <v>2015</v>
@@ -4575,9 +4597,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="20">
         <v>2484</v>
@@ -4589,9 +4611,9 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="20">
         <v>4259</v>
@@ -4603,9 +4625,9 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="20">
         <v>568</v>
@@ -4617,9 +4639,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="20">
         <v>1626</v>
@@ -4631,9 +4653,9 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="20">
         <v>4475</v>
@@ -4645,9 +4667,9 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="20">
         <v>74</v>
@@ -4659,9 +4681,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="20">
         <v>29264</v>
@@ -4673,9 +4695,9 @@
         <v>27726</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="20">
         <v>1589</v>
@@ -4687,9 +4709,9 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="20">
         <v>10</v>
@@ -4701,23 +4723,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" s="20">
-        <v>0</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="20" t="s">
-        <v>151</v>
       </c>
       <c r="B12" s="20">
         <v>25</v>
@@ -4729,9 +4751,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="20">
         <v>2</v>
@@ -4743,9 +4765,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="20">
         <v>17</v>
@@ -4757,9 +4779,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="20">
         <v>993</v>
@@ -4771,9 +4793,9 @@
         <v>944</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="20">
         <v>970</v>
@@ -4785,9 +4807,9 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="20">
         <v>1284</v>
@@ -4799,9 +4821,9 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="20">
         <v>555</v>
@@ -4813,9 +4835,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="20">
         <v>112</v>
@@ -4827,9 +4849,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="20">
         <v>268</v>
@@ -4841,9 +4863,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="20">
         <v>352</v>
@@ -4855,9 +4877,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="20">
         <v>1221</v>
@@ -4882,14 +4904,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="20">
         <v>2015</v>
@@ -4901,9 +4923,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="20">
         <v>2530</v>
@@ -4915,9 +4937,9 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="20">
         <v>3798</v>
@@ -4929,9 +4951,9 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="20">
         <v>432</v>
@@ -4943,9 +4965,9 @@
         <v>652</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="20">
         <v>1627</v>
@@ -4957,9 +4979,9 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="20">
         <v>3059</v>
@@ -4971,9 +4993,9 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="20">
         <v>0</v>
@@ -4985,9 +5007,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="20">
         <v>23489</v>
@@ -4999,9 +5021,9 @@
         <v>24784</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="20">
         <v>3963</v>
@@ -5013,9 +5035,9 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="20">
         <v>8</v>
@@ -5027,9 +5049,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="20">
         <v>1</v>
@@ -5041,9 +5063,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="20">
         <v>26</v>
@@ -5055,9 +5077,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="20">
         <v>24</v>
@@ -5069,9 +5091,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="20">
         <v>10</v>
@@ -5083,9 +5105,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="20">
         <v>1076</v>
@@ -5097,9 +5119,9 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="20">
         <v>1101</v>
@@ -5111,9 +5133,9 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="20">
         <v>1472</v>
@@ -5125,9 +5147,9 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="20">
         <v>515</v>
@@ -5139,9 +5161,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="20">
         <v>119</v>
@@ -5153,9 +5175,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="20">
         <v>304</v>
@@ -5167,9 +5189,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="20">
         <v>388</v>
@@ -5181,9 +5203,9 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="20">
         <v>1255</v>
@@ -5208,7 +5230,7 @@
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
@@ -5217,7 +5239,7 @@
     <col min="24" max="24" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5291,7 +5313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -5365,7 +5387,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -5439,7 +5461,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -5513,7 +5535,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -5587,7 +5609,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
@@ -5674,7 +5696,7 @@
       <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
@@ -5682,7 +5704,7 @@
     <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5756,7 +5778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -5830,7 +5852,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -5904,7 +5926,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -5978,7 +6000,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -6052,7 +6074,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
